--- a/data/review_final.xlsx
+++ b/data/review_final.xlsx
@@ -1,37 +1,1059 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Library/CloudStorage/OneDrive-ImperialCollegeLondon/Imperial College/AI4Health PhD/Year 1/Developper/sepsis_ml_review/Sepsis-ml-review/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3583F5B3-5E10-A24F-96D3-DF852C34ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="4280" yWindow="500" windowWidth="46920" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="336">
+  <si>
+    <t>Covidence #</t>
+  </si>
+  <si>
+    <t>Study ID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Reviewer Name</t>
+  </si>
+  <si>
+    <t>Year of publication</t>
+  </si>
+  <si>
+    <t>Funding source</t>
+  </si>
+  <si>
+    <t>Supervised learning</t>
+  </si>
+  <si>
+    <t>Unsupervised learning</t>
+  </si>
+  <si>
+    <t>Reinforcement learning</t>
+  </si>
+  <si>
+    <t>Biological / physiological model</t>
+  </si>
+  <si>
+    <t>Algorithms used</t>
+  </si>
+  <si>
+    <t>MIMIC (any version)</t>
+  </si>
+  <si>
+    <t>eICU Collaborative Research Database</t>
+  </si>
+  <si>
+    <t>Private dataset / datasets</t>
+  </si>
+  <si>
+    <t>Other public dataset</t>
+  </si>
+  <si>
+    <t>Name/names of other public dataset/datasets</t>
+  </si>
+  <si>
+    <t>Number of hospitals is specified</t>
+  </si>
+  <si>
+    <t>Total number of hospitals</t>
+  </si>
+  <si>
+    <t>Number of patient episodes is specified</t>
+  </si>
+  <si>
+    <t>Total number of patient episodes</t>
+  </si>
+  <si>
+    <t>Non-temporal</t>
+  </si>
+  <si>
+    <t>Temporal, non-waveform</t>
+  </si>
+  <si>
+    <t>Temporal, waveform</t>
+  </si>
+  <si>
+    <t>Sepsis definition is specified</t>
+  </si>
+  <si>
+    <t>Defined using Sepsis-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defined using 'Infection + SIRS' </t>
+  </si>
+  <si>
+    <t>Defined using clinical codes</t>
+  </si>
+  <si>
+    <t>Defined using other criteria</t>
+  </si>
+  <si>
+    <t>Septic shock definition is specified</t>
+  </si>
+  <si>
+    <t>Definition requires vasopressors / inotropes</t>
+  </si>
+  <si>
+    <t>Definition requires initial fluid resuscitation</t>
+  </si>
+  <si>
+    <t>Definition requires high lactate</t>
+  </si>
+  <si>
+    <t>Internal validation</t>
+  </si>
+  <si>
+    <t>External retrospective validation (other hospitals)</t>
+  </si>
+  <si>
+    <t>External retrospective validation (separate dataset)</t>
+  </si>
+  <si>
+    <t>Prospective observational validation</t>
+  </si>
+  <si>
+    <t>Non-randomised interventional validation (clinical trial)</t>
+  </si>
+  <si>
+    <t>Randomised interventional validation (clinical trial)</t>
+  </si>
+  <si>
+    <t>Regulatory approval</t>
+  </si>
+  <si>
+    <t>Post-deployment surveillance</t>
+  </si>
+  <si>
+    <t>Festor 2021</t>
+  </si>
+  <si>
+    <t>Enabling risk-aware Reinforcement Learning for medical interventions through uncertainty decomposition</t>
+  </si>
+  <si>
+    <t>Consensus</t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k-means, DQN, UADQN</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>17083</t>
+  </si>
+  <si>
+    <t>Krige 2016</t>
+  </si>
+  <si>
+    <t>Fluid responsiveness prediction using Vigileo FloTrac measured cardiac output changes during passive leg raise test.</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Third-generation FloTrac</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Yu 2019</t>
+  </si>
+  <si>
+    <t>Deep Inverse Reinforcement Learning for Sepsis Treatment</t>
+  </si>
+  <si>
+    <t>Unclear or not reported</t>
+  </si>
+  <si>
+    <t>Deep inverse RL with mini tree</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Ho 2014</t>
+  </si>
+  <si>
+    <t>Septic Shock Prediction for Patients with Missing Data</t>
+  </si>
+  <si>
+    <t>multivariate logistic regression; linear kernel support vector machine; decision trees (RPART)</t>
+  </si>
+  <si>
+    <t>1353</t>
+  </si>
+  <si>
+    <t>Watkinson 2021</t>
+  </si>
+  <si>
+    <t>Class-Modeling of Septic Shock With Hyperdimensional Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high-dimensional computing, one-class classification </t>
+  </si>
+  <si>
+    <t>1237</t>
+  </si>
+  <si>
+    <t>Jeter 2021</t>
+  </si>
+  <si>
+    <t>Learning to Treat Hypotensive Episodes in Sepsis Patients Using a Counterfactual Reasoning Framework</t>
+  </si>
+  <si>
+    <t>Switching generalised linear model; policy gradients; feedforward neural network; causal inference (logistic regression; softmax classifier)</t>
+  </si>
+  <si>
+    <t>5366</t>
+  </si>
+  <si>
+    <t>Zhu 2021</t>
+  </si>
+  <si>
+    <t>A self-supervised method for treatment recommendation in sepsis</t>
+  </si>
+  <si>
+    <t>dueling net, variational autoencoder, high-risk uncertainty reinforcement learning</t>
+  </si>
+  <si>
+    <t>15415</t>
+  </si>
+  <si>
+    <t>Gupta 2021</t>
+  </si>
+  <si>
+    <t>Optimal sepsis patient treatment using human-in-the-loop artificial intelligence</t>
+  </si>
+  <si>
+    <t>'Inverse classification', logistic regression, feedforward neural network</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>Darwiche 2021</t>
+  </si>
+  <si>
+    <t>Improving Septic Shock Prediction with AdaBoost and Cox Regression Model</t>
+  </si>
+  <si>
+    <t>Cox regression; AdaBoost</t>
+  </si>
+  <si>
+    <t>5628</t>
+  </si>
+  <si>
+    <t>Chen 2021</t>
+  </si>
+  <si>
+    <t>Real-time interactive artificial intelligence of things–based prediction for adverse outcomes in adult patients with pneumonia in the emergency department</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>logistic regression, random forest, support-vector machine, light gradient boosting machine, multilayer perceptron, extreme gradient boosting</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>92,186</t>
+  </si>
+  <si>
+    <t>Mollura 2020</t>
+  </si>
+  <si>
+    <t>Prediction of Septic Shock Onset in ICU by Instantaneous Monitoring of Vital Signs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logistic  regression (LR),  Trees,  Support  Vector  Machines  (SVM),  k-NearestNeighbors  (kNN)  and  Ensemble  Tree  (E.TREE) </t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Liu 2020</t>
+  </si>
+  <si>
+    <t>Dose regulation model of norepinephrine based on LSTM network and clustering analysis in sepsis</t>
+  </si>
+  <si>
+    <t>Long short term memory; linear regression; gradient-boosted trees; dynamic time warping</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>Khoshnevisan 2020</t>
+  </si>
+  <si>
+    <t>An Adversarial Domain Separation Framework for Septic Shock Early Prediction across EHR Systems</t>
+  </si>
+  <si>
+    <t>Variational recurrent neural network; Wasserstein generative adversarial network</t>
+  </si>
+  <si>
+    <t>136311</t>
+  </si>
+  <si>
+    <t>Hammoud 2020</t>
+  </si>
+  <si>
+    <t>Multimodal Early Septic Shock Prediction Model using Lasso Regression with Decaying Response</t>
+  </si>
+  <si>
+    <t>Lasso regression with decaying response</t>
+  </si>
+  <si>
+    <t>17763</t>
+  </si>
+  <si>
+    <t>Yang 2019</t>
+  </si>
+  <si>
+    <t>Time-aware Subgroup Matrix Decomposition: Imputing Missing Data Using Forecasting Events</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>ChristianaCare Health System</t>
+  </si>
+  <si>
+    <t>3738</t>
+  </si>
+  <si>
+    <t>Salgado 2018</t>
+  </si>
+  <si>
+    <t>Mixed fuzzy clustering for deriving predictive models in intensive care units</t>
+  </si>
+  <si>
+    <t>Takagi-Sugeno fuzzy clustering</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>Lin 2018</t>
+  </si>
+  <si>
+    <t>Early diagnosis and prediction of sepsis shock by combining static and dynamic information using convolutional-LSTM</t>
+  </si>
+  <si>
+    <t>LSTM; CNN; FCNN</t>
+  </si>
+  <si>
+    <t>Christiana Care Health System (CCHS) database</t>
+  </si>
+  <si>
+    <t>Kim 2018</t>
+  </si>
+  <si>
+    <t>Temporal belief memory: Imputing missing data during RNN training</t>
+  </si>
+  <si>
+    <t>recurrent neural networks; temporary belief memory</t>
+  </si>
+  <si>
+    <t>Khoshnevisan 2018</t>
+  </si>
+  <si>
+    <t>Recent temporal pattern mining for septic shock early prediction</t>
+  </si>
+  <si>
+    <t>Recent temporal patterns; support vector machine; logistic regression; long short-term memory</t>
+  </si>
+  <si>
+    <t>12980</t>
+  </si>
+  <si>
+    <t>Darwiche 2018</t>
+  </si>
+  <si>
+    <t>Machine learning methods for septic shock prediction</t>
+  </si>
+  <si>
+    <t>Cox-enhanced random forest</t>
+  </si>
+  <si>
+    <t>Khwannimit 2012</t>
+  </si>
+  <si>
+    <t>Prediction of fluid responsiveness in septic shock patients: Comparing stroke volume variation by FloTrac/Vigileo and automated pulse pressure variation</t>
+  </si>
+  <si>
+    <t>Flotrac (third generation)</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>deOliveira-Costa 2012</t>
+  </si>
+  <si>
+    <t>Pulse pressure variation and prediction of fluid responsiveness in patients ventilated with low tidal volumes</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Brause 2001</t>
+  </si>
+  <si>
+    <t>Medical analysis and diagnosis by neural networks</t>
+  </si>
+  <si>
+    <t>Supervised growing neural gas; neural fuzzy logic</t>
+  </si>
+  <si>
+    <t>874</t>
+  </si>
+  <si>
+    <t>Wardi 2020</t>
+  </si>
+  <si>
+    <t>Predicting progression to septic shock in the emergency department using an externally generalizable machine learning algorithm</t>
+  </si>
+  <si>
+    <t>neural network, Weibull-Cox proportional hazards model</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>14908</t>
+  </si>
+  <si>
+    <t>Yee 2019</t>
+  </si>
+  <si>
+    <t>A Data-Driven Approach to Predicting Septic Shock in the Intensive Care Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayesian network </t>
+  </si>
+  <si>
+    <t>9165</t>
+  </si>
+  <si>
+    <t>Yun 2021</t>
+  </si>
+  <si>
+    <t>Enhancement in Performance of Septic Shock Prediction Using National Early Warning Score, Initial Triage Information, and Machine Learning Analysis</t>
+  </si>
+  <si>
+    <t>logistic regression (LR) ; extreme gradient boosting (XGB); artificial neural network(ANN)</t>
+  </si>
+  <si>
+    <t>"adult ED encounters at an urban tertiary-care academic center"</t>
+  </si>
+  <si>
+    <t>235906</t>
+  </si>
+  <si>
+    <t>Tang 2021</t>
+  </si>
+  <si>
+    <t>Physiology-Informed Real-Time Mean Arterial Blood Pressure Learning and Prediction for Septic Patients Receiving Norepinephrine</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normalised least mean square, autoregressive-moving-average with exogenous inputs, infinite impulse response linear model,  reduced rank least mean square linear model </t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Speth 2021</t>
+  </si>
+  <si>
+    <t>Restricted sub-tree learning to estimate an optimal dynamic treatment regime using observational data</t>
+  </si>
+  <si>
+    <t>Restricted sub-tree learning (ReST-L), a flexible and robust, sub-tree-based method to estimate an optimal multi-stage multi-treatment DTR</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>Misra 2021</t>
+  </si>
+  <si>
+    <t>Early detection of septic shock onset using interpretable machine learners</t>
+  </si>
+  <si>
+    <t>Random Forest; XGBoost; C5.0; Decision Trees, Boosted
+Logistic Regression; Support Vector Machine; Logistic Regression; Regularized Logistic; Bayes
+Generalized Linear Model</t>
+  </si>
+  <si>
+    <t>EPIC; AMISYS; Sunquest</t>
+  </si>
+  <si>
+    <t>45425</t>
+  </si>
+  <si>
+    <t>Ma 2021</t>
+  </si>
+  <si>
+    <t>Individualized resuscitation strategy for septic shock formalized by finite mixture modeling and dynamic treatment regimen</t>
+  </si>
+  <si>
+    <t>Finite mixture modelling, K-means, dynamic treatment regime</t>
+  </si>
+  <si>
+    <t>7293</t>
+  </si>
+  <si>
+    <t>LaCava 2021</t>
+  </si>
+  <si>
+    <t>Evaluating recommender systems for AI-driven biomedical informatics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> logistic regression; KNN classifier; classification tree; random forest; support vector machine; gradient boosting; long short-term memory; tuned logistic regression</t>
+  </si>
+  <si>
+    <t>35534</t>
+  </si>
+  <si>
+    <t>Jia 2021</t>
+  </si>
+  <si>
+    <t>Safety-driven design of machine learning for sepsis treatment</t>
+  </si>
+  <si>
+    <t>Dueling double-deep Q network</t>
+  </si>
+  <si>
+    <t>25292</t>
+  </si>
+  <si>
+    <t>Holder 2021</t>
+  </si>
+  <si>
+    <t>A Locally Optimized Data-Driven Tool to Predict Sepsis-Associated Vasopressor Use in the ICU</t>
+  </si>
+  <si>
+    <t>Neural network Weibull-Cox</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>14512</t>
+  </si>
+  <si>
+    <t>Ahrendt 2021</t>
+  </si>
+  <si>
+    <t>Transatlantic transferability of a new reinforcement learning model for optimizing haemodynamic treatment for critically ill patients with sepsis</t>
+  </si>
+  <si>
+    <t>Dueling Double-Deep Q Network</t>
+  </si>
+  <si>
+    <t>AmsterdamUMCdb</t>
+  </si>
+  <si>
+    <t>11382</t>
+  </si>
+  <si>
+    <t>Zhang 2020</t>
+  </si>
+  <si>
+    <t>Individualized fluid administration for critically ill patients with sepsis with an interpretable dynamic treatment regimen model</t>
+  </si>
+  <si>
+    <t>Dynamic treatment regimen: "The DTR model used a backward induction algorithm to estimate the sequence of optimal rules."</t>
+  </si>
+  <si>
+    <t>from 335 units at 208 hospitals</t>
+  </si>
+  <si>
+    <t>22868</t>
+  </si>
+  <si>
+    <t>Kim 2020</t>
+  </si>
+  <si>
+    <t>Machine learning for prediction of septic shock at initial triage in emergency department</t>
+  </si>
+  <si>
+    <t>Support vector machine; gradient-boosted trees; random forest; multivariate adaptive regression splines; logistic regression; feedforward neural network</t>
+  </si>
+  <si>
+    <t>49299</t>
+  </si>
+  <si>
+    <t>Kamaleswaran 2020</t>
+  </si>
+  <si>
+    <t>Predicting Volume Responsiveness Among Sepsis Patients Using Clinical Data and Continuous Physiological Waveforms</t>
+  </si>
+  <si>
+    <t>Random forest, gradient-boosted trees, logistic regression, support vector machine</t>
+  </si>
+  <si>
+    <t>15062</t>
+  </si>
+  <si>
+    <t>Tang 2019</t>
+  </si>
+  <si>
+    <t>Reduced Rank Least Squares for Real-Time Short Term Estimation of Mean Arterial Blood Pressure in Septic Patients Receiving Norepinephrine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduced-rank least squares </t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Prasad 2019</t>
+  </si>
+  <si>
+    <t>Clustering Blood Pressure Trajectories in Septic Shock in the Emergency Department</t>
+  </si>
+  <si>
+    <t>Dynamic time warping, hierarchical agglomerative clustering</t>
+  </si>
+  <si>
+    <t>765</t>
+  </si>
+  <si>
+    <t>Liu 2019</t>
+  </si>
+  <si>
+    <t>Natural Language Processing of Clinical Notes for Improved Early Prediction of Septic Shock in the ICU</t>
+  </si>
+  <si>
+    <t>Gradient boosting; GRU; FCNN</t>
+  </si>
+  <si>
+    <t>15111</t>
+  </si>
+  <si>
+    <t>Lin 2019</t>
+  </si>
+  <si>
+    <t>A machine learning approach for predicting urine output after fluid administration</t>
+  </si>
+  <si>
+    <t>Gradient Boosting</t>
+  </si>
+  <si>
+    <t>19275</t>
+  </si>
+  <si>
+    <t>Greenstein 2019</t>
+  </si>
+  <si>
+    <t>Data-driven discovery of a novel sepsis pre-shock state predicts impending septic shock in the ICU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generalised linear model, gradient-boosted trees, recurrent neural network </t>
+  </si>
+  <si>
+    <t>Giannini 2019</t>
+  </si>
+  <si>
+    <t>A Machine Learning Algorithm to Predict Severe Sepsis and Septic Shock: Development, Implementation, and Impact on Clinical Practice</t>
+  </si>
+  <si>
+    <t>Random forest</t>
+  </si>
+  <si>
+    <t>194940</t>
+  </si>
+  <si>
+    <t>Fagerstrom 2019</t>
+  </si>
+  <si>
+    <t>LiSep LSTM: A Machine Learning Algorithm for Early Detection of Septic Shock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSTM; </t>
+  </si>
+  <si>
+    <t>50373</t>
+  </si>
+  <si>
+    <t>Zhang 2018</t>
+  </si>
+  <si>
+    <t>Identification of subclasses of sepsis that showed different clinical outcomes and responses to amount of fluid resuscitation: A latent profile analysis 11 Medical and Health Sciences 1103 Clinical Sciences</t>
+  </si>
+  <si>
+    <t>Latent profile analysis + multivariable logistic regression model</t>
+  </si>
+  <si>
+    <t>14993</t>
+  </si>
+  <si>
+    <t>Mao 2018</t>
+  </si>
+  <si>
+    <t>Multicentre validation of a sepsis prediction algorithm using only vital sign data in the emergency department, general ward and ICU</t>
+  </si>
+  <si>
+    <t>Gradient boosting</t>
+  </si>
+  <si>
+    <t>UCSF Medical Centre; Stanford Medical Center; Oroville Hospital; Bakersfield Heart Hospital; Cape Regional Medical Center</t>
+  </si>
+  <si>
+    <t>359390</t>
+  </si>
+  <si>
+    <t>Gordon 2018</t>
+  </si>
+  <si>
+    <t>The Artificial Intelligence Clinician learns optimal treatment strategies for sepsis in intensive care</t>
+  </si>
+  <si>
+    <t>k-means; Q-learning</t>
+  </si>
+  <si>
+    <t>96156</t>
+  </si>
+  <si>
+    <t>Prasad 2017</t>
+  </si>
+  <si>
+    <t>Classification models to predict vasopressor administration for septic shock in the emergency department</t>
+  </si>
+  <si>
+    <t>Logistic regression, quadratic discrimination analysis, random forest</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>Ghosh 2017</t>
+  </si>
+  <si>
+    <t>Septic shock prediction for ICU patients via coupled HMM walking on sequential contrast patterns</t>
+  </si>
+  <si>
+    <t>Coupled hidden Markov models</t>
+  </si>
+  <si>
+    <t>1310</t>
+  </si>
+  <si>
+    <t>Sorensen 2016</t>
+  </si>
+  <si>
+    <t>Multi-complexity measures of heart rate variability and the effect of vasopressor titration: A prospective cohort study of patients with septic shock</t>
+  </si>
+  <si>
+    <t>Multilevel logistic regression, Continuous Individual Multiorgan Variability Analysis</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Paxton 2013</t>
+  </si>
+  <si>
+    <t>Developing predictive models using electronic medical records: challenges and pitfalls</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SVM-light</t>
+  </si>
+  <si>
+    <t>10066</t>
+  </si>
+  <si>
+    <t>Thiel 2010</t>
+  </si>
+  <si>
+    <t>Early prediction of septic shock in hospitalized patients</t>
+  </si>
+  <si>
+    <t>Recursive Partitioning And Regression Tree (RPART)</t>
+  </si>
+  <si>
+    <t>Barnes-Jewish  Hospital, St. Louis, MO, USA</t>
+  </si>
+  <si>
+    <t>41459</t>
+  </si>
+  <si>
+    <t>Merouani 2008</t>
+  </si>
+  <si>
+    <t>Norepinephrine weaning in septic shock patients by closed loop control based on fuzzy logic</t>
+  </si>
+  <si>
+    <t>closed-loop fuzzy logic</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Continuous Administration of Norepinephrine Assisted by Fuzzy Logic Assisted Control in Septic Shock Patients</t>
+  </si>
+  <si>
+    <t>Fuzzy logic</t>
+  </si>
+  <si>
+    <t>Satija 2021</t>
+  </si>
+  <si>
+    <t>Multi-Objective SPIBB: Seldonian Offline Policy Improvement with Safety Constraints in Finite MDPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> safe policy iteration with baseline bootstrapping, reinforcement learning</t>
+  </si>
+  <si>
+    <t>20954</t>
+  </si>
+  <si>
+    <t>Nanayakkara 2021</t>
+  </si>
+  <si>
+    <t>Unifying Cardiovascular Modelling with Deep Reinforcement Learning for Uncertainty Aware Control of Sepsis Treatment</t>
+  </si>
+  <si>
+    <t>Autoencoder; FCNN; GRU; physiological circuit model; Imitation learning; DQN</t>
+  </si>
+  <si>
+    <t>Liu 2021</t>
+  </si>
+  <si>
+    <t>Offline reinforcement learning with uncertainty for treatment strategies in sepsis</t>
+  </si>
+  <si>
+    <t>k-means; Canonical correlation analysis; Q-learning; bootstraping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21189 </t>
+  </si>
+  <si>
+    <t>Kim 2021</t>
+  </si>
+  <si>
+    <t>Time-Aware Q-Networks: Resolving Temporal Irregularity for Deep Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Time-aware Q-Networks</t>
+  </si>
+  <si>
+    <t>4410</t>
+  </si>
+  <si>
+    <t>Ausin 2021</t>
+  </si>
+  <si>
+    <t>InferNet for Delayed Reinforcement Tasks: Addressing the Temporal Credit Assignment Problem</t>
+  </si>
+  <si>
+    <t>Feedforward neural network, dueling deep Q network, Gaussian process</t>
+  </si>
+  <si>
+    <t>5928</t>
+  </si>
+  <si>
+    <t>Xu 2020</t>
+  </si>
+  <si>
+    <t>DeepRite: Deep Recurrent Inverse TreatmEnt Weighting for Adjusting Time-varying Confounding in Modern Longitudinal Observational Data</t>
+  </si>
+  <si>
+    <t>DeepRite: Deep Re-current Inverse TreatmEnt weighting method. aim is to estimate unbiased treatment effects</t>
+  </si>
+  <si>
+    <t>19954</t>
+  </si>
+  <si>
+    <t>Lu 2020</t>
+  </si>
+  <si>
+    <t>Is Deep Reinforcement Learning Ready for Practical Applications in Healthcare? A Sensitivity Analysis of Duel-DDQN for Hemodynamic Management in Sepsis Patients</t>
+  </si>
+  <si>
+    <t>LSTM; Dueling DDQN; GRU</t>
+  </si>
+  <si>
+    <t>7956</t>
+  </si>
+  <si>
+    <t>Li 2020</t>
+  </si>
+  <si>
+    <t>Optimizing Medical Treatment for Sepsis in Intensive Care: from Reinforcement Learning to Pre-Trial Evaluation</t>
+  </si>
+  <si>
+    <t>actor-critic reinforcement learning; recurrent neural network; local heuristic tree search</t>
+  </si>
+  <si>
+    <t>20587</t>
+  </si>
+  <si>
+    <t>Killian 2020</t>
+  </si>
+  <si>
+    <t>An Empirical Study of Representation Learning for Reinforcement Learning in Healthcare</t>
+  </si>
+  <si>
+    <t>Discretised batch-constrained Q learning; recurrent neural network autoencoder; approximate information state; neural controlled differential equations; decoupled dynamics module; deep signature transformations; ordinary differential equations recurrent neural network</t>
+  </si>
+  <si>
+    <t>19418</t>
+  </si>
+  <si>
+    <t>Peng 2019</t>
+  </si>
+  <si>
+    <t>Improving Sepsis Treatment Strategies by Combining Deep and Kernel-Based Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>deep reinforcement learning; kernel-based reinforcement learning</t>
+  </si>
+  <si>
+    <t>Li 2019</t>
+  </si>
+  <si>
+    <t>Optimizing Sequential Medical Treatments with Auto-Encoding Heuristic Search in POMDPs</t>
+  </si>
+  <si>
+    <t>actor-critic reinforcement learning; recurrent neural network</t>
+  </si>
+  <si>
+    <t>18914</t>
+  </si>
+  <si>
+    <t>Lee 2019</t>
+  </si>
+  <si>
+    <t>Truly Batch Apprenticeship Learning with Deep Successor Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inverse reinforcement learning; </t>
+  </si>
+  <si>
+    <t>17898</t>
+  </si>
+  <si>
+    <t>Belogolovsky 2019</t>
+  </si>
+  <si>
+    <t>Inverse Reinforcement Learning in Contextual MDPs</t>
+  </si>
+  <si>
+    <t>Contextual inverse RL</t>
+  </si>
+  <si>
+    <t>Raghu 2018</t>
+  </si>
+  <si>
+    <t>Model-Based Reinforcement Learning for Sepsis Treatment</t>
+  </si>
+  <si>
+    <t>model-based reinforcement learning</t>
+  </si>
+  <si>
+    <t>Mitra 2018</t>
+  </si>
+  <si>
+    <t>Sepsis Prediction and Vital Signs Ranking in Intensive Care Unit Patients</t>
+  </si>
+  <si>
+    <t>MLP; Logistic regression; Gradient boosting; Random forest; Model ensemble</t>
+  </si>
+  <si>
+    <t>21603</t>
+  </si>
+  <si>
+    <t>Li 2018</t>
+  </si>
+  <si>
+    <t>The Actor Search Tree Critic (ASTC) for Off-Policy POMDP Learning in Medical Decision Making</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actor search tree critic </t>
+  </si>
+  <si>
+    <t>18919</t>
+  </si>
+  <si>
+    <t>Raghu 2017</t>
+  </si>
+  <si>
+    <t>Continuous State-Space Models for Optimal Sepsis Treatment - a Deep Reinforcement Learning Approach</t>
+  </si>
+  <si>
+    <t>Deep RL</t>
+  </si>
+  <si>
+    <t>Deep Reinforcement Learning for Sepsis Treatment</t>
+  </si>
+  <si>
+    <t>Deuling DDQN</t>
+  </si>
+  <si>
+    <t>Robinson 2016</t>
+  </si>
+  <si>
+    <t>Trading-Off Cost of Deployment Versus Accuracy in Learning Predictive Models</t>
+  </si>
+  <si>
+    <t>Logistic regression; boolean circuit; regularisation</t>
+  </si>
+  <si>
+    <t>14937</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +1068,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,250 +1392,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Covidence #</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Study ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer Name</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Year of publication</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Funding source</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Supervised learning</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Unsupervised learning</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Reinforcement learning</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Biological / physiological model</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Algorithms used</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MIMIC (any version)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>eICU Collaborative Research Database</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Private dataset / datasets</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Other public dataset</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Name/names of other public dataset/datasets</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Number of hospitals is specified</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Total number of hospitals</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Number of patient episodes is specified</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Total number of patient episodes</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Non-temporal</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Temporal, non-waveform</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Temporal, waveform</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Sepsis definition is specified</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Defined using Sepsis-3</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Defined using 'Infection + SIRS' </t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Defined using clinical codes</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Defined using other criteria</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Septic shock definition is specified</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Definition requires vasopressors / inotropes</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Definition requires initial fluid resuscitation</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Definition requires high lactate</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Internal validation</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>External retrospective validation (other hospitals)</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>External retrospective validation (separate dataset)</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Prospective observational validation</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Non-randomised interventional validation (clinical trial)</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Randomised interventional validation (clinical trial)</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Regulatory approval</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Post-deployment surveillance</t>
-        </is>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>6167</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Festor 2021</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Enabling risk-aware Reinforcement Learning for medical interventions through uncertainty decomposition</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2">
         <v>2021</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G2" t="s">
+        <v>43</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -677,10 +1557,8 @@
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> k-means, DQN, UADQN</t>
-        </is>
+      <c r="L2" t="s">
+        <v>44</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
@@ -694,22 +1572,17 @@
       <c r="P2" t="b">
         <v>0</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="b">
         <v>1</v>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S2" t="s">
+        <v>45</v>
       </c>
       <c r="T2" t="b">
         <v>1</v>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>17083</t>
-        </is>
+      <c r="U2" t="s">
+        <v>46</v>
       </c>
       <c r="V2" t="b">
         <v>1</v>
@@ -738,9 +1611,6 @@
       <c r="AD2" t="b">
         <v>0</v>
       </c>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="b">
         <v>1</v>
       </c>
@@ -766,35 +1636,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>6166</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Krige 2016</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Fluid responsiveness prediction using Vigileo FloTrac measured cardiac output changes during passive leg raise test.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3">
         <v>2016</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="G3" t="s">
+        <v>49</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -808,10 +1670,8 @@
       <c r="K3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Third-generation FloTrac</t>
-        </is>
+      <c r="L3" t="s">
+        <v>50</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
@@ -825,22 +1685,17 @@
       <c r="P3" t="b">
         <v>0</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="b">
         <v>1</v>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S3" t="s">
+        <v>45</v>
       </c>
       <c r="T3" t="b">
         <v>1</v>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="U3" t="s">
+        <v>51</v>
       </c>
       <c r="V3" t="b">
         <v>1</v>
@@ -903,35 +1758,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>6165</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Yu 2019</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Deep Inverse Reinforcement Learning for Sepsis Treatment</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4">
         <v>2019</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Unclear or not reported</t>
-        </is>
+      <c r="G4" t="s">
+        <v>54</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -945,10 +1792,8 @@
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Deep inverse RL with mini tree</t>
-        </is>
+      <c r="L4" t="s">
+        <v>55</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -962,22 +1807,17 @@
       <c r="P4" t="b">
         <v>0</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="b">
         <v>1</v>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S4" t="s">
+        <v>45</v>
       </c>
       <c r="T4" t="b">
         <v>0</v>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="U4" t="s">
+        <v>56</v>
       </c>
       <c r="V4" t="b">
         <v>0</v>
@@ -1040,35 +1880,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>6139</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Ho 2014</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Septic Shock Prediction for Patients with Missing Data</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5">
         <v>2014</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G5" t="s">
+        <v>43</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -1082,10 +1914,8 @@
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>multivariate logistic regression; linear kernel support vector machine; decision trees (RPART)</t>
-        </is>
+      <c r="L5" t="s">
+        <v>59</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -1099,22 +1929,17 @@
       <c r="P5" t="b">
         <v>0</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="b">
         <v>1</v>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S5" t="s">
+        <v>45</v>
       </c>
       <c r="T5" t="b">
         <v>1</v>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>1353</t>
-        </is>
+      <c r="U5" t="s">
+        <v>60</v>
       </c>
       <c r="V5" t="b">
         <v>1</v>
@@ -1177,35 +2002,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>6130</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Watkinson 2021</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Class-Modeling of Septic Shock With Hyperdimensional Computing</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6">
         <v>2021</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Unclear or not reported</t>
-        </is>
+      <c r="G6" t="s">
+        <v>54</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -1219,10 +2036,8 @@
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">high-dimensional computing, one-class classification </t>
-        </is>
+      <c r="L6" t="s">
+        <v>63</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -1236,18 +2051,14 @@
       <c r="P6" t="b">
         <v>0</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="b">
         <v>0</v>
       </c>
-      <c r="S6" t="inlineStr"/>
       <c r="T6" t="b">
         <v>1</v>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>1237</t>
-        </is>
+      <c r="U6" t="s">
+        <v>64</v>
       </c>
       <c r="V6" t="b">
         <v>1</v>
@@ -1310,35 +2121,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>6117</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Jeter 2021</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Learning to Treat Hypotensive Episodes in Sepsis Patients Using a Counterfactual Reasoning Framework</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7">
         <v>2021</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G7" t="s">
+        <v>43</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -1352,10 +2155,8 @@
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Switching generalised linear model; policy gradients; feedforward neural network; causal inference (logistic regression; softmax classifier)</t>
-        </is>
+      <c r="L7" t="s">
+        <v>67</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -1369,22 +2170,17 @@
       <c r="P7" t="b">
         <v>0</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="b">
         <v>1</v>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S7" t="s">
+        <v>45</v>
       </c>
       <c r="T7" t="b">
         <v>1</v>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>5366</t>
-        </is>
+      <c r="U7" t="s">
+        <v>68</v>
       </c>
       <c r="V7" t="b">
         <v>1</v>
@@ -1447,35 +2243,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>6067</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Zhu 2021</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>A self-supervised method for treatment recommendation in sepsis</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8">
         <v>2021</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G8" t="s">
+        <v>43</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -1489,10 +2277,8 @@
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>dueling net, variational autoencoder, high-risk uncertainty reinforcement learning</t>
-        </is>
+      <c r="L8" t="s">
+        <v>71</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
@@ -1506,22 +2292,17 @@
       <c r="P8" t="b">
         <v>0</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="b">
         <v>1</v>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S8" t="s">
+        <v>45</v>
       </c>
       <c r="T8" t="b">
         <v>1</v>
       </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>15415</t>
-        </is>
+      <c r="U8" t="s">
+        <v>72</v>
       </c>
       <c r="V8" t="b">
         <v>1</v>
@@ -1584,35 +2365,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>5967</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Gupta 2021</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Optimal sepsis patient treatment using human-in-the-loop artificial intelligence</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9">
         <v>2020</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Unclear or not reported</t>
-        </is>
+      <c r="G9" t="s">
+        <v>54</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -1626,10 +2399,8 @@
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>'Inverse classification', logistic regression, feedforward neural network</t>
-        </is>
+      <c r="L9" t="s">
+        <v>75</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
@@ -1643,22 +2414,17 @@
       <c r="P9" t="b">
         <v>0</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="b">
         <v>1</v>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S9" t="s">
+        <v>45</v>
       </c>
       <c r="T9" t="b">
         <v>1</v>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1122</t>
-        </is>
+      <c r="U9" t="s">
+        <v>76</v>
       </c>
       <c r="V9" t="b">
         <v>1</v>
@@ -1721,35 +2487,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>5949</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Darwiche 2021</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Improving Septic Shock Prediction with AdaBoost and Cox Regression Model</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10">
         <v>2021</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Unclear or not reported</t>
-        </is>
+      <c r="G10" t="s">
+        <v>54</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -1763,10 +2521,8 @@
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Cox regression; AdaBoost</t>
-        </is>
+      <c r="L10" t="s">
+        <v>79</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -1780,22 +2536,17 @@
       <c r="P10" t="b">
         <v>0</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="b">
         <v>1</v>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S10" t="s">
+        <v>45</v>
       </c>
       <c r="T10" t="b">
         <v>1</v>
       </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>5628</t>
-        </is>
+      <c r="U10" t="s">
+        <v>80</v>
       </c>
       <c r="V10" t="b">
         <v>0</v>
@@ -1858,35 +2609,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>5947</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Chen 2021</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Real-time interactive artificial intelligence of things–based prediction for adverse outcomes in adult patients with pneumonia in the emergency department</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11">
         <v>2021</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Commercial</t>
-        </is>
+      <c r="G11" t="s">
+        <v>83</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -1900,10 +2643,8 @@
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>logistic regression, random forest, support-vector machine, light gradient boosting machine, multilayer perceptron, extreme gradient boosting</t>
-        </is>
+      <c r="L11" t="s">
+        <v>84</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -1917,22 +2658,17 @@
       <c r="P11" t="b">
         <v>0</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="b">
         <v>1</v>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="S11" t="s">
+        <v>85</v>
       </c>
       <c r="T11" t="b">
         <v>1</v>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>92,186</t>
-        </is>
+      <c r="U11" t="s">
+        <v>86</v>
       </c>
       <c r="V11" t="b">
         <v>1</v>
@@ -1943,14 +2679,12 @@
       <c r="X11" t="b">
         <v>0</v>
       </c>
-      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="b">
         <v>0</v>
       </c>
       <c r="AA11" t="b">
         <v>0</v>
       </c>
-      <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="b">
         <v>1</v>
       </c>
@@ -1991,35 +2725,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>5884</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Mollura 2020</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Prediction of Septic Shock Onset in ICU by Instantaneous Monitoring of Vital Signs</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12">
         <v>2020</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G12" t="s">
+        <v>43</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -2033,10 +2759,8 @@
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Logistic  regression (LR),  Trees,  Support  Vector  Machines  (SVM),  k-NearestNeighbors  (kNN)  and  Ensemble  Tree  (E.TREE) </t>
-        </is>
+      <c r="L12" t="s">
+        <v>89</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -2050,22 +2774,17 @@
       <c r="P12" t="b">
         <v>0</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="b">
         <v>1</v>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S12" t="s">
+        <v>45</v>
       </c>
       <c r="T12" t="b">
         <v>1</v>
       </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="U12" t="s">
+        <v>90</v>
       </c>
       <c r="V12" t="b">
         <v>0</v>
@@ -2128,35 +2847,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>5871</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Liu 2020</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Dose regulation model of norepinephrine based on LSTM network and clustering analysis in sepsis</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13">
         <v>2020</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G13" t="s">
+        <v>43</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -2170,10 +2881,8 @@
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Long short term memory; linear regression; gradient-boosted trees; dynamic time warping</t>
-        </is>
+      <c r="L13" t="s">
+        <v>93</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
@@ -2187,22 +2896,17 @@
       <c r="P13" t="b">
         <v>0</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="b">
         <v>1</v>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S13" t="s">
+        <v>45</v>
       </c>
       <c r="T13" t="b">
         <v>1</v>
       </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>541</t>
-        </is>
+      <c r="U13" t="s">
+        <v>94</v>
       </c>
       <c r="V13" t="b">
         <v>1</v>
@@ -2265,35 +2969,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>5856</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Khoshnevisan 2020</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>An Adversarial Domain Separation Framework for Septic Shock Early Prediction across EHR Systems</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14">
         <v>2020</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G14" t="s">
+        <v>43</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
@@ -2307,10 +3003,8 @@
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Variational recurrent neural network; Wasserstein generative adversarial network</t>
-        </is>
+      <c r="L14" t="s">
+        <v>97</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -2324,22 +3018,17 @@
       <c r="P14" t="b">
         <v>0</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="b">
         <v>0</v>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S14" t="s">
+        <v>56</v>
       </c>
       <c r="T14" t="b">
         <v>1</v>
       </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>136311</t>
-        </is>
+      <c r="U14" t="s">
+        <v>98</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
@@ -2402,35 +3091,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>5834</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Hammoud 2020</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Multimodal Early Septic Shock Prediction Model using Lasso Regression with Decaying Response</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15">
         <v>2020</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G15" t="s">
+        <v>43</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -2444,10 +3125,8 @@
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Lasso regression with decaying response</t>
-        </is>
+      <c r="L15" t="s">
+        <v>101</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
@@ -2461,22 +3140,17 @@
       <c r="P15" t="b">
         <v>0</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="b">
         <v>0</v>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S15" t="s">
+        <v>56</v>
       </c>
       <c r="T15" t="b">
         <v>1</v>
       </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>17763</t>
-        </is>
+      <c r="U15" t="s">
+        <v>102</v>
       </c>
       <c r="V15" t="b">
         <v>1</v>
@@ -2539,35 +3213,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>5790</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Yang 2019</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Time-aware Subgroup Matrix Decomposition: Imputing Missing Data Using Forecasting Events</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16">
         <v>2018</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G16" t="s">
+        <v>43</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -2581,10 +3247,8 @@
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>LSTM</t>
-        </is>
+      <c r="L16" t="s">
+        <v>105</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
@@ -2598,22 +3262,17 @@
       <c r="P16" t="b">
         <v>0</v>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>ChristianaCare Health System</t>
-        </is>
+      <c r="Q16" t="s">
+        <v>106</v>
       </c>
       <c r="R16" t="b">
         <v>0</v>
       </c>
-      <c r="S16" t="inlineStr"/>
       <c r="T16" t="b">
         <v>1</v>
       </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>3738</t>
-        </is>
+      <c r="U16" t="s">
+        <v>107</v>
       </c>
       <c r="V16" t="b">
         <v>1</v>
@@ -2676,35 +3335,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>5646</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Salgado 2018</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Mixed fuzzy clustering for deriving predictive models in intensive care units</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17">
         <v>2018</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G17" t="s">
+        <v>43</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -2718,10 +3369,8 @@
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Takagi-Sugeno fuzzy clustering</t>
-        </is>
+      <c r="L17" t="s">
+        <v>110</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
@@ -2735,22 +3384,17 @@
       <c r="P17" t="b">
         <v>0</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="b">
         <v>1</v>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S17" t="s">
+        <v>45</v>
       </c>
       <c r="T17" t="b">
         <v>1</v>
       </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>1323</t>
-        </is>
+      <c r="U17" t="s">
+        <v>111</v>
       </c>
       <c r="V17" t="b">
         <v>1</v>
@@ -2813,35 +3457,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>5629</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Lin 2018</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Early diagnosis and prediction of sepsis shock by combining static and dynamic information using convolutional-LSTM</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18">
         <v>2018</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G18" t="s">
+        <v>43</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -2855,10 +3491,8 @@
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>LSTM; CNN; FCNN</t>
-        </is>
+      <c r="L18" t="s">
+        <v>114</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
@@ -2872,22 +3506,17 @@
       <c r="P18" t="b">
         <v>0</v>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Christiana Care Health System (CCHS) database</t>
-        </is>
+      <c r="Q18" t="s">
+        <v>115</v>
       </c>
       <c r="R18" t="b">
         <v>0</v>
       </c>
-      <c r="S18" t="inlineStr"/>
       <c r="T18" t="b">
         <v>1</v>
       </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>3738</t>
-        </is>
+      <c r="U18" t="s">
+        <v>107</v>
       </c>
       <c r="V18" t="b">
         <v>1</v>
@@ -2950,35 +3579,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>5615</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Kim 2018</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Temporal belief memory: Imputing missing data during RNN training</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19">
         <v>2018</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G19" t="s">
+        <v>43</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -2992,10 +3613,8 @@
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>recurrent neural networks; temporary belief memory</t>
-        </is>
+      <c r="L19" t="s">
+        <v>118</v>
       </c>
       <c r="M19" t="b">
         <v>0</v>
@@ -3009,22 +3628,17 @@
       <c r="P19" t="b">
         <v>0</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="b">
         <v>0</v>
       </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S19" t="s">
+        <v>56</v>
       </c>
       <c r="T19" t="b">
         <v>1</v>
       </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>3738</t>
-        </is>
+      <c r="U19" t="s">
+        <v>107</v>
       </c>
       <c r="V19" t="b">
         <v>1</v>
@@ -3087,35 +3701,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>5614</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Khoshnevisan 2018</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Recent temporal pattern mining for septic shock early prediction</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20">
         <v>2018</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G20" t="s">
+        <v>43</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -3129,10 +3735,8 @@
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Recent temporal patterns; support vector machine; logistic regression; long short-term memory</t>
-        </is>
+      <c r="L20" t="s">
+        <v>121</v>
       </c>
       <c r="M20" t="b">
         <v>0</v>
@@ -3146,22 +3750,17 @@
       <c r="P20" t="b">
         <v>0</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="b">
         <v>0</v>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S20" t="s">
+        <v>56</v>
       </c>
       <c r="T20" t="b">
         <v>1</v>
       </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>12980</t>
-        </is>
+      <c r="U20" t="s">
+        <v>122</v>
       </c>
       <c r="V20" t="b">
         <v>0</v>
@@ -3224,35 +3823,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>5583</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Darwiche 2018</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Machine learning methods for septic shock prediction</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21">
         <v>2018</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Unclear or not reported</t>
-        </is>
+      <c r="G21" t="s">
+        <v>54</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
@@ -3266,10 +3857,8 @@
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Cox-enhanced random forest</t>
-        </is>
+      <c r="L21" t="s">
+        <v>125</v>
       </c>
       <c r="M21" t="b">
         <v>1</v>
@@ -3283,22 +3872,17 @@
       <c r="P21" t="b">
         <v>0</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="b">
         <v>1</v>
       </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S21" t="s">
+        <v>45</v>
       </c>
       <c r="T21" t="b">
         <v>1</v>
       </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>5628</t>
-        </is>
+      <c r="U21" t="s">
+        <v>80</v>
       </c>
       <c r="V21" t="b">
         <v>0</v>
@@ -3361,35 +3945,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>5178</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Khwannimit 2012</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Prediction of fluid responsiveness in septic shock patients: Comparing stroke volume variation by FloTrac/Vigileo and automated pulse pressure variation</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+      <c r="C22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22">
         <v>2012</v>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G22" t="s">
+        <v>43</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -3403,10 +3979,8 @@
       <c r="K22" t="b">
         <v>1</v>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Flotrac (third generation)</t>
-        </is>
+      <c r="L22" t="s">
+        <v>128</v>
       </c>
       <c r="M22" t="b">
         <v>0</v>
@@ -3420,22 +3994,17 @@
       <c r="P22" t="b">
         <v>0</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="b">
         <v>1</v>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S22" t="s">
+        <v>45</v>
       </c>
       <c r="T22" t="b">
         <v>1</v>
       </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="U22" t="s">
+        <v>129</v>
       </c>
       <c r="V22" t="b">
         <v>1</v>
@@ -3498,35 +4067,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>5173</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>deOliveira-Costa 2012</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Pulse pressure variation and prediction of fluid responsiveness in patients ventilated with low tidal volumes</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23">
         <v>2012</v>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G23" t="s">
+        <v>43</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -3540,7 +4101,6 @@
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr"/>
       <c r="M23" t="b">
         <v>0</v>
       </c>
@@ -3553,22 +4113,17 @@
       <c r="P23" t="b">
         <v>0</v>
       </c>
-      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="b">
         <v>1</v>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S23" t="s">
+        <v>45</v>
       </c>
       <c r="T23" t="b">
         <v>1</v>
       </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="U23" t="s">
+        <v>132</v>
       </c>
       <c r="V23" t="b">
         <v>1</v>
@@ -3631,35 +4186,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>4920</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Brause 2001</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Medical analysis and diagnosis by neural networks</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+      <c r="C24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24">
         <v>2001</v>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Unclear or not reported</t>
-        </is>
+      <c r="G24" t="s">
+        <v>54</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -3673,10 +4220,8 @@
       <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Supervised growing neural gas; neural fuzzy logic</t>
-        </is>
+      <c r="L24" t="s">
+        <v>135</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
@@ -3690,22 +4235,17 @@
       <c r="P24" t="b">
         <v>0</v>
       </c>
-      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="b">
         <v>1</v>
       </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S24" t="s">
+        <v>45</v>
       </c>
       <c r="T24" t="b">
         <v>1</v>
       </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>874</t>
-        </is>
+      <c r="U24" t="s">
+        <v>136</v>
       </c>
       <c r="V24" t="b">
         <v>0</v>
@@ -3768,35 +4308,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>4685</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Wardi 2020</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Predicting progression to septic shock in the emergency department using an externally generalizable machine learning algorithm</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25">
         <v>2020</v>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Unclear or not reported</t>
-        </is>
+      <c r="G25" t="s">
+        <v>54</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -3810,10 +4342,8 @@
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>neural network, Weibull-Cox proportional hazards model</t>
-        </is>
+      <c r="L25" t="s">
+        <v>139</v>
       </c>
       <c r="M25" t="b">
         <v>0</v>
@@ -3827,22 +4357,17 @@
       <c r="P25" t="b">
         <v>0</v>
       </c>
-      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="b">
         <v>1</v>
       </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S25" t="s">
+        <v>140</v>
       </c>
       <c r="T25" t="b">
         <v>1</v>
       </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>14908</t>
-        </is>
+      <c r="U25" t="s">
+        <v>141</v>
       </c>
       <c r="V25" t="b">
         <v>1</v>
@@ -3905,35 +4430,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>4584</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Yee 2019</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>A Data-Driven Approach to Predicting Septic Shock in the Intensive Care Unit</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26">
         <v>2019</v>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Commercial</t>
-        </is>
+      <c r="G26" t="s">
+        <v>83</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -3947,10 +4464,8 @@
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bayesian network </t>
-        </is>
+      <c r="L26" t="s">
+        <v>144</v>
       </c>
       <c r="M26" t="b">
         <v>1</v>
@@ -3964,18 +4479,14 @@
       <c r="P26" t="b">
         <v>0</v>
       </c>
-      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="b">
         <v>0</v>
       </c>
-      <c r="S26" t="inlineStr"/>
       <c r="T26" t="b">
         <v>1</v>
       </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>9165</t>
-        </is>
+      <c r="U26" t="s">
+        <v>145</v>
       </c>
       <c r="V26" t="b">
         <v>1</v>
@@ -4038,35 +4549,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>3912</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Yun 2021</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Enhancement in Performance of Septic Shock Prediction Using National Early Warning Score, Initial Triage Information, and Machine Learning Analysis</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27">
         <v>2021</v>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G27" t="s">
+        <v>43</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -4080,10 +4583,8 @@
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>logistic regression (LR) ; extreme gradient boosting (XGB); artificial neural network(ANN)</t>
-        </is>
+      <c r="L27" t="s">
+        <v>148</v>
       </c>
       <c r="M27" t="b">
         <v>0</v>
@@ -4097,26 +4598,20 @@
       <c r="P27" t="b">
         <v>0</v>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>"adult ED encounters at an urban tertiary-care academic center"</t>
-        </is>
+      <c r="Q27" t="s">
+        <v>149</v>
       </c>
       <c r="R27" t="b">
         <v>1</v>
       </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S27" t="s">
+        <v>45</v>
       </c>
       <c r="T27" t="b">
         <v>1</v>
       </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>235906</t>
-        </is>
+      <c r="U27" t="s">
+        <v>150</v>
       </c>
       <c r="V27" t="b">
         <v>1</v>
@@ -4179,35 +4674,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>3885</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Tang 2021</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Physiology-Informed Real-Time Mean Arterial Blood Pressure Learning and Prediction for Septic Patients Receiving Norepinephrine</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+      <c r="C28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28">
         <v>2021</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Mixed</t>
-        </is>
+      <c r="G28" t="s">
+        <v>153</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -4221,10 +4708,8 @@
       <c r="K28" t="b">
         <v>1</v>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">normalised least mean square, autoregressive-moving-average with exogenous inputs, infinite impulse response linear model,  reduced rank least mean square linear model </t>
-        </is>
+      <c r="L28" t="s">
+        <v>154</v>
       </c>
       <c r="M28" t="b">
         <v>1</v>
@@ -4238,22 +4723,17 @@
       <c r="P28" t="b">
         <v>0</v>
       </c>
-      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="b">
         <v>1</v>
       </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S28" t="s">
+        <v>140</v>
       </c>
       <c r="T28" t="b">
         <v>1</v>
       </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="U28" t="s">
+        <v>155</v>
       </c>
       <c r="V28" t="b">
         <v>0</v>
@@ -4316,35 +4796,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>3877</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Speth 2021</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Restricted sub-tree learning to estimate an optimal dynamic treatment regime using observational data</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+      <c r="C29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29">
         <v>2021</v>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G29" t="s">
+        <v>43</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -4358,10 +4830,8 @@
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Restricted sub-tree learning (ReST-L), a flexible and robust, sub-tree-based method to estimate an optimal multi-stage multi-treatment DTR</t>
-        </is>
+      <c r="L29" t="s">
+        <v>158</v>
       </c>
       <c r="M29" t="b">
         <v>1</v>
@@ -4375,18 +4845,14 @@
       <c r="P29" t="b">
         <v>0</v>
       </c>
-      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="b">
         <v>0</v>
       </c>
-      <c r="S29" t="inlineStr"/>
       <c r="T29" t="b">
         <v>1</v>
       </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>708</t>
-        </is>
+      <c r="U29" t="s">
+        <v>159</v>
       </c>
       <c r="V29" t="b">
         <v>1</v>
@@ -4449,35 +4915,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>3816</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Misra 2021</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Early detection of septic shock onset using interpretable machine learners</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
+      <c r="C30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30">
         <v>2021</v>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Commercial</t>
-        </is>
+      <c r="G30" t="s">
+        <v>83</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -4491,12 +4949,8 @@
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Random Forest; XGBoost; C5.0; Decision Trees, Boosted
-Logistic Regression; Support Vector Machine; Logistic Regression; Regularized Logistic; Bayes
-Generalized Linear Model</t>
-        </is>
+      <c r="L30" t="s">
+        <v>162</v>
       </c>
       <c r="M30" t="b">
         <v>0</v>
@@ -4510,22 +4964,17 @@
       <c r="P30" t="b">
         <v>0</v>
       </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>EPIC; AMISYS; Sunquest</t>
-        </is>
+      <c r="Q30" t="s">
+        <v>163</v>
       </c>
       <c r="R30" t="b">
         <v>0</v>
       </c>
-      <c r="S30" t="inlineStr"/>
       <c r="T30" t="b">
         <v>1</v>
       </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>45425</t>
-        </is>
+      <c r="U30" t="s">
+        <v>164</v>
       </c>
       <c r="V30" t="b">
         <v>1</v>
@@ -4588,35 +5037,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>3808</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Ma 2021</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Individualized resuscitation strategy for septic shock formalized by finite mixture modeling and dynamic treatment regimen</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+      <c r="C31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31">
         <v>2021</v>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G31" t="s">
+        <v>43</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
@@ -4630,10 +5071,8 @@
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Finite mixture modelling, K-means, dynamic treatment regime</t>
-        </is>
+      <c r="L31" t="s">
+        <v>167</v>
       </c>
       <c r="M31" t="b">
         <v>0</v>
@@ -4647,22 +5086,17 @@
       <c r="P31" t="b">
         <v>0</v>
       </c>
-      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="b">
         <v>0</v>
       </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S31" t="s">
+        <v>56</v>
       </c>
       <c r="T31" t="b">
         <v>1</v>
       </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>7293</t>
-        </is>
+      <c r="U31" t="s">
+        <v>168</v>
       </c>
       <c r="V31" t="b">
         <v>1</v>
@@ -4725,35 +5159,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>3789</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>LaCava 2021</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Evaluating recommender systems for AI-driven biomedical informatics</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
+      <c r="C32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32">
         <v>2021</v>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G32" t="s">
+        <v>43</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
@@ -4767,10 +5193,8 @@
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> logistic regression; KNN classifier; classification tree; random forest; support vector machine; gradient boosting; long short-term memory; tuned logistic regression</t>
-        </is>
+      <c r="L32" t="s">
+        <v>171</v>
       </c>
       <c r="M32" t="b">
         <v>1</v>
@@ -4784,22 +5208,17 @@
       <c r="P32" t="b">
         <v>0</v>
       </c>
-      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="b">
         <v>0</v>
       </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S32" t="s">
+        <v>56</v>
       </c>
       <c r="T32" t="b">
         <v>1</v>
       </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>35534</t>
-        </is>
+      <c r="U32" t="s">
+        <v>172</v>
       </c>
       <c r="V32" t="b">
         <v>1</v>
@@ -4862,35 +5281,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>3775</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Jia 2021</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Safety-driven design of machine learning for sepsis treatment</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
+      <c r="C33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33">
         <v>2021</v>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G33" t="s">
+        <v>43</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -4904,10 +5315,8 @@
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Dueling double-deep Q network</t>
-        </is>
+      <c r="L33" t="s">
+        <v>175</v>
       </c>
       <c r="M33" t="b">
         <v>1</v>
@@ -4921,22 +5330,17 @@
       <c r="P33" t="b">
         <v>0</v>
       </c>
-      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="b">
         <v>1</v>
       </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S33" t="s">
+        <v>45</v>
       </c>
       <c r="T33" t="b">
         <v>1</v>
       </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>25292</t>
-        </is>
+      <c r="U33" t="s">
+        <v>176</v>
       </c>
       <c r="V33" t="b">
         <v>1</v>
@@ -4999,35 +5403,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>3763</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Holder 2021</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>A Locally Optimized Data-Driven Tool to Predict Sepsis-Associated Vasopressor Use in the ICU</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+      <c r="C34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34">
         <v>2021</v>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G34" t="s">
+        <v>43</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -5041,10 +5437,8 @@
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Neural network Weibull-Cox</t>
-        </is>
+      <c r="L34" t="s">
+        <v>179</v>
       </c>
       <c r="M34" t="b">
         <v>0</v>
@@ -5058,22 +5452,17 @@
       <c r="P34" t="b">
         <v>0</v>
       </c>
-      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="b">
         <v>1</v>
       </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="S34" t="s">
+        <v>180</v>
       </c>
       <c r="T34" t="b">
         <v>1</v>
       </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>14512</t>
-        </is>
+      <c r="U34" t="s">
+        <v>181</v>
       </c>
       <c r="V34" t="b">
         <v>1</v>
@@ -5136,35 +5525,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>3693</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Ahrendt 2021</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Transatlantic transferability of a new reinforcement learning model for optimizing haemodynamic treatment for critically ill patients with sepsis</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
+      <c r="C35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35">
         <v>2020</v>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Unclear or not reported</t>
-        </is>
+      <c r="G35" t="s">
+        <v>54</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -5178,10 +5559,8 @@
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Dueling Double-Deep Q Network</t>
-        </is>
+      <c r="L35" t="s">
+        <v>184</v>
       </c>
       <c r="M35" t="b">
         <v>1</v>
@@ -5195,26 +5574,20 @@
       <c r="P35" t="b">
         <v>1</v>
       </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>AmsterdamUMCdb</t>
-        </is>
+      <c r="Q35" t="s">
+        <v>185</v>
       </c>
       <c r="R35" t="b">
         <v>1</v>
       </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S35" t="s">
+        <v>140</v>
       </c>
       <c r="T35" t="b">
         <v>1</v>
       </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>11382</t>
-        </is>
+      <c r="U35" t="s">
+        <v>186</v>
       </c>
       <c r="V35" t="b">
         <v>1</v>
@@ -5277,35 +5650,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>3683</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Zhang 2020</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Individualized fluid administration for critically ill patients with sepsis with an interpretable dynamic treatment regimen model</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
+      <c r="C36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36">
         <v>2020</v>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G36" t="s">
+        <v>43</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
@@ -5319,10 +5684,8 @@
       <c r="K36" t="b">
         <v>0</v>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Dynamic treatment regimen: "The DTR model used a backward induction algorithm to estimate the sequence of optimal rules."</t>
-        </is>
+      <c r="L36" t="s">
+        <v>189</v>
       </c>
       <c r="M36" t="b">
         <v>0</v>
@@ -5336,22 +5699,17 @@
       <c r="P36" t="b">
         <v>0</v>
       </c>
-      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="b">
         <v>1</v>
       </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>from 335 units at 208 hospitals</t>
-        </is>
+      <c r="S36" t="s">
+        <v>190</v>
       </c>
       <c r="T36" t="b">
         <v>1</v>
       </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>22868</t>
-        </is>
+      <c r="U36" t="s">
+        <v>191</v>
       </c>
       <c r="V36" t="b">
         <v>1</v>
@@ -5414,35 +5772,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>3496</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Kim 2020</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Machine learning for prediction of septic shock at initial triage in emergency department</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+      <c r="C37" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37">
         <v>2020</v>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G37" t="s">
+        <v>43</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
@@ -5456,10 +5806,8 @@
       <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Support vector machine; gradient-boosted trees; random forest; multivariate adaptive regression splines; logistic regression; feedforward neural network</t>
-        </is>
+      <c r="L37" t="s">
+        <v>194</v>
       </c>
       <c r="M37" t="b">
         <v>0</v>
@@ -5473,22 +5821,17 @@
       <c r="P37" t="b">
         <v>0</v>
       </c>
-      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="b">
         <v>1</v>
       </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S37" t="s">
+        <v>45</v>
       </c>
       <c r="T37" t="b">
         <v>1</v>
       </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>49299</t>
-        </is>
+      <c r="U37" t="s">
+        <v>195</v>
       </c>
       <c r="V37" t="b">
         <v>1</v>
@@ -5551,35 +5894,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>3488</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Kamaleswaran 2020</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Predicting Volume Responsiveness Among Sepsis Patients Using Clinical Data and Continuous Physiological Waveforms</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+      <c r="C38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38">
         <v>2020</v>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Unclear or not reported</t>
-        </is>
+      <c r="G38" t="s">
+        <v>54</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
@@ -5593,10 +5928,8 @@
       <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Random forest, gradient-boosted trees, logistic regression, support vector machine</t>
-        </is>
+      <c r="L38" t="s">
+        <v>198</v>
       </c>
       <c r="M38" t="b">
         <v>1</v>
@@ -5610,22 +5943,17 @@
       <c r="P38" t="b">
         <v>0</v>
       </c>
-      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="b">
         <v>1</v>
       </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S38" t="s">
+        <v>45</v>
       </c>
       <c r="T38" t="b">
         <v>1</v>
       </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>15062</t>
-        </is>
+      <c r="U38" t="s">
+        <v>199</v>
       </c>
       <c r="V38" t="b">
         <v>1</v>
@@ -5688,35 +6016,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>3278</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Tang 2019</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Reduced Rank Least Squares for Real-Time Short Term Estimation of Mean Arterial Blood Pressure in Septic Patients Receiving Norepinephrine</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
+      <c r="C39" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39">
         <v>2019</v>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Mixed</t>
-        </is>
+      <c r="G39" t="s">
+        <v>153</v>
       </c>
       <c r="H39" t="b">
         <v>1</v>
@@ -5730,10 +6050,8 @@
       <c r="K39" t="b">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">reduced-rank least squares </t>
-        </is>
+      <c r="L39" t="s">
+        <v>202</v>
       </c>
       <c r="M39" t="b">
         <v>1</v>
@@ -5747,22 +6065,17 @@
       <c r="P39" t="b">
         <v>0</v>
       </c>
-      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="b">
         <v>1</v>
       </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S39" t="s">
+        <v>45</v>
       </c>
       <c r="T39" t="b">
         <v>1</v>
       </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="U39" t="s">
+        <v>203</v>
       </c>
       <c r="V39" t="b">
         <v>1</v>
@@ -5825,35 +6138,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>3213</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Prasad 2019</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Clustering Blood Pressure Trajectories in Septic Shock in the Emergency Department</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
+      <c r="C40" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" t="s">
+        <v>205</v>
+      </c>
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40">
         <v>2019</v>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Mixed</t>
-        </is>
+      <c r="G40" t="s">
+        <v>153</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -5867,10 +6172,8 @@
       <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Dynamic time warping, hierarchical agglomerative clustering</t>
-        </is>
+      <c r="L40" t="s">
+        <v>206</v>
       </c>
       <c r="M40" t="b">
         <v>0</v>
@@ -5884,22 +6187,17 @@
       <c r="P40" t="b">
         <v>0</v>
       </c>
-      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="b">
         <v>1</v>
       </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S40" t="s">
+        <v>45</v>
       </c>
       <c r="T40" t="b">
         <v>1</v>
       </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>765</t>
-        </is>
+      <c r="U40" t="s">
+        <v>207</v>
       </c>
       <c r="V40" t="b">
         <v>0</v>
@@ -5962,35 +6260,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>3148</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Liu 2019</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Natural Language Processing of Clinical Notes for Improved Early Prediction of Septic Shock in the ICU</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
+      <c r="C41" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41">
         <v>2019</v>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Unclear or not reported</t>
-        </is>
+      <c r="G41" t="s">
+        <v>54</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
@@ -6004,10 +6294,8 @@
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Gradient boosting; GRU; FCNN</t>
-        </is>
+      <c r="L41" t="s">
+        <v>210</v>
       </c>
       <c r="M41" t="b">
         <v>1</v>
@@ -6021,18 +6309,14 @@
       <c r="P41" t="b">
         <v>0</v>
       </c>
-      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="b">
         <v>0</v>
       </c>
-      <c r="S41" t="inlineStr"/>
       <c r="T41" t="b">
         <v>1</v>
       </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>15111</t>
-        </is>
+      <c r="U41" t="s">
+        <v>211</v>
       </c>
       <c r="V41" t="b">
         <v>1</v>
@@ -6095,35 +6379,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>3144</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Lin 2019</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>A machine learning approach for predicting urine output after fluid administration</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
+      <c r="C42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42">
         <v>2019</v>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G42" t="s">
+        <v>43</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
@@ -6137,10 +6413,8 @@
       <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Gradient Boosting</t>
-        </is>
+      <c r="L42" t="s">
+        <v>214</v>
       </c>
       <c r="M42" t="b">
         <v>1</v>
@@ -6154,22 +6428,17 @@
       <c r="P42" t="b">
         <v>0</v>
       </c>
-      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="b">
         <v>1</v>
       </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S42" t="s">
+        <v>45</v>
       </c>
       <c r="T42" t="b">
         <v>1</v>
       </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>19275</t>
-        </is>
+      <c r="U42" t="s">
+        <v>215</v>
       </c>
       <c r="V42" t="b">
         <v>1</v>
@@ -6232,35 +6501,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>3070</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Greenstein 2019</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Data-driven discovery of a novel sepsis pre-shock state predicts impending septic shock in the ICU</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
+      <c r="C43" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" t="s">
+        <v>217</v>
+      </c>
+      <c r="E43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43">
         <v>2019</v>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G43" t="s">
+        <v>43</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
@@ -6274,10 +6535,8 @@
       <c r="K43" t="b">
         <v>0</v>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Generalised linear model, gradient-boosted trees, recurrent neural network </t>
-        </is>
+      <c r="L43" t="s">
+        <v>218</v>
       </c>
       <c r="M43" t="b">
         <v>1</v>
@@ -6291,22 +6550,17 @@
       <c r="P43" t="b">
         <v>0</v>
       </c>
-      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="b">
         <v>1</v>
       </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S43" t="s">
+        <v>45</v>
       </c>
       <c r="T43" t="b">
         <v>1</v>
       </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>15111</t>
-        </is>
+      <c r="U43" t="s">
+        <v>211</v>
       </c>
       <c r="V43" t="b">
         <v>0</v>
@@ -6369,35 +6623,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>3065</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Giannini 2019</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>A Machine Learning Algorithm to Predict Severe Sepsis and Septic Shock: Development, Implementation, and Impact on Clinical Practice</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
+      <c r="C44" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44">
         <v>2019</v>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G44" t="s">
+        <v>43</v>
       </c>
       <c r="H44" t="b">
         <v>1</v>
@@ -6411,10 +6657,8 @@
       <c r="K44" t="b">
         <v>0</v>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Random forest</t>
-        </is>
+      <c r="L44" t="s">
+        <v>221</v>
       </c>
       <c r="M44" t="b">
         <v>0</v>
@@ -6428,22 +6672,17 @@
       <c r="P44" t="b">
         <v>0</v>
       </c>
-      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="b">
         <v>1</v>
       </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="S44" t="s">
+        <v>85</v>
       </c>
       <c r="T44" t="b">
         <v>1</v>
       </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>194940</t>
-        </is>
+      <c r="U44" t="s">
+        <v>222</v>
       </c>
       <c r="V44" t="b">
         <v>1</v>
@@ -6506,35 +6745,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>3049</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Fagerstrom 2019</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>LiSep LSTM: A Machine Learning Algorithm for Early Detection of Septic Shock</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
+      <c r="C45" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45">
         <v>2019</v>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G45" t="s">
+        <v>43</v>
       </c>
       <c r="H45" t="b">
         <v>1</v>
@@ -6548,10 +6779,8 @@
       <c r="K45" t="b">
         <v>0</v>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LSTM; </t>
-        </is>
+      <c r="L45" t="s">
+        <v>225</v>
       </c>
       <c r="M45" t="b">
         <v>1</v>
@@ -6565,22 +6794,17 @@
       <c r="P45" t="b">
         <v>0</v>
       </c>
-      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="b">
         <v>1</v>
       </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S45" t="s">
+        <v>45</v>
       </c>
       <c r="T45" t="b">
         <v>1</v>
       </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>50373</t>
-        </is>
+      <c r="U45" t="s">
+        <v>226</v>
       </c>
       <c r="V45" t="b">
         <v>1</v>
@@ -6643,35 +6867,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>2954</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Zhang 2018</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Identification of subclasses of sepsis that showed different clinical outcomes and responses to amount of fluid resuscitation: A latent profile analysis 11 Medical and Health Sciences 1103 Clinical Sciences</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
+      <c r="C46" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" t="s">
+        <v>228</v>
+      </c>
+      <c r="E46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46">
         <v>2018</v>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G46" t="s">
+        <v>43</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -6685,10 +6901,8 @@
       <c r="K46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Latent profile analysis + multivariable logistic regression model</t>
-        </is>
+      <c r="L46" t="s">
+        <v>229</v>
       </c>
       <c r="M46" t="b">
         <v>1</v>
@@ -6702,18 +6916,14 @@
       <c r="P46" t="b">
         <v>0</v>
       </c>
-      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="b">
         <v>0</v>
       </c>
-      <c r="S46" t="inlineStr"/>
       <c r="T46" t="b">
         <v>1</v>
       </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>14993</t>
-        </is>
+      <c r="U46" t="s">
+        <v>230</v>
       </c>
       <c r="V46" t="b">
         <v>1</v>
@@ -6776,35 +6986,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>2846</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Mao 2018</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Multicentre validation of a sepsis prediction algorithm using only vital sign data in the emergency department, general ward and ICU</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
+      <c r="C47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47">
         <v>2018</v>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G47" t="s">
+        <v>43</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -6818,10 +7020,8 @@
       <c r="K47" t="b">
         <v>0</v>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Gradient boosting</t>
-        </is>
+      <c r="L47" t="s">
+        <v>233</v>
       </c>
       <c r="M47" t="b">
         <v>1</v>
@@ -6835,26 +7035,20 @@
       <c r="P47" t="b">
         <v>0</v>
       </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>UCSF Medical Centre; Stanford Medical Center; Oroville Hospital; Bakersfield Heart Hospital; Cape Regional Medical Center</t>
-        </is>
+      <c r="Q47" t="s">
+        <v>234</v>
       </c>
       <c r="R47" t="b">
         <v>1</v>
       </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="S47" t="s">
+        <v>180</v>
       </c>
       <c r="T47" t="b">
         <v>1</v>
       </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>359390</t>
-        </is>
+      <c r="U47" t="s">
+        <v>235</v>
       </c>
       <c r="V47" t="b">
         <v>0</v>
@@ -6917,35 +7111,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>2777</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Gordon 2018</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>The Artificial Intelligence Clinician learns optimal treatment strategies for sepsis in intensive care</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
+      <c r="C48" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48">
         <v>2018</v>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G48" t="s">
+        <v>43</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -6959,10 +7145,8 @@
       <c r="K48" t="b">
         <v>0</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>k-means; Q-learning</t>
-        </is>
+      <c r="L48" t="s">
+        <v>238</v>
       </c>
       <c r="M48" t="b">
         <v>1</v>
@@ -6976,22 +7160,17 @@
       <c r="P48" t="b">
         <v>0</v>
       </c>
-      <c r="Q48" t="inlineStr"/>
       <c r="R48" t="b">
         <v>1</v>
       </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S48" t="s">
+        <v>45</v>
       </c>
       <c r="T48" t="b">
         <v>1</v>
       </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>96156</t>
-        </is>
+      <c r="U48" t="s">
+        <v>239</v>
       </c>
       <c r="V48" t="b">
         <v>1</v>
@@ -7014,13 +7193,9 @@
       <c r="AB48" t="b">
         <v>0</v>
       </c>
-      <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
-      <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="inlineStr"/>
-      <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="b">
         <v>1</v>
       </c>
@@ -7046,35 +7221,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>2602</v>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Prasad 2017</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Classification models to predict vasopressor administration for septic shock in the emergency department</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
+      <c r="C49" t="s">
+        <v>240</v>
+      </c>
+      <c r="D49" t="s">
+        <v>241</v>
+      </c>
+      <c r="E49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49">
         <v>2017</v>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Mixed</t>
-        </is>
+      <c r="G49" t="s">
+        <v>153</v>
       </c>
       <c r="H49" t="b">
         <v>1</v>
@@ -7088,10 +7255,8 @@
       <c r="K49" t="b">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Logistic regression, quadratic discrimination analysis, random forest</t>
-        </is>
+      <c r="L49" t="s">
+        <v>242</v>
       </c>
       <c r="M49" t="b">
         <v>0</v>
@@ -7105,22 +7270,17 @@
       <c r="P49" t="b">
         <v>0</v>
       </c>
-      <c r="Q49" t="inlineStr"/>
       <c r="R49" t="b">
         <v>1</v>
       </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S49" t="s">
+        <v>45</v>
       </c>
       <c r="T49" t="b">
         <v>1</v>
       </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>807</t>
-        </is>
+      <c r="U49" t="s">
+        <v>243</v>
       </c>
       <c r="V49" t="b">
         <v>1</v>
@@ -7183,35 +7343,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>2499</v>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Ghosh 2017</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Septic shock prediction for ICU patients via coupled HMM walking on sequential contrast patterns</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
+      <c r="C50" t="s">
+        <v>244</v>
+      </c>
+      <c r="D50" t="s">
+        <v>245</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50">
         <v>2016</v>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G50" t="s">
+        <v>43</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
@@ -7225,10 +7377,8 @@
       <c r="K50" t="b">
         <v>0</v>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Coupled hidden Markov models</t>
-        </is>
+      <c r="L50" t="s">
+        <v>246</v>
       </c>
       <c r="M50" t="b">
         <v>1</v>
@@ -7242,22 +7392,17 @@
       <c r="P50" t="b">
         <v>0</v>
       </c>
-      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="b">
         <v>1</v>
       </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S50" t="s">
+        <v>45</v>
       </c>
       <c r="T50" t="b">
         <v>1</v>
       </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>1310</t>
-        </is>
+      <c r="U50" t="s">
+        <v>247</v>
       </c>
       <c r="V50" t="b">
         <v>0</v>
@@ -7320,35 +7465,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>2380</v>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Sorensen 2016</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Multi-complexity measures of heart rate variability and the effect of vasopressor titration: A prospective cohort study of patients with septic shock</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
+      <c r="C51" t="s">
+        <v>248</v>
+      </c>
+      <c r="D51" t="s">
+        <v>249</v>
+      </c>
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51">
         <v>2016</v>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G51" t="s">
+        <v>43</v>
       </c>
       <c r="H51" t="b">
         <v>1</v>
@@ -7362,10 +7499,8 @@
       <c r="K51" t="b">
         <v>0</v>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Multilevel logistic regression, Continuous Individual Multiorgan Variability Analysis</t>
-        </is>
+      <c r="L51" t="s">
+        <v>250</v>
       </c>
       <c r="M51" t="b">
         <v>0</v>
@@ -7379,22 +7514,17 @@
       <c r="P51" t="b">
         <v>0</v>
       </c>
-      <c r="Q51" t="inlineStr"/>
       <c r="R51" t="b">
         <v>1</v>
       </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S51" t="s">
+        <v>45</v>
       </c>
       <c r="T51" t="b">
         <v>1</v>
       </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
+      <c r="U51" t="s">
+        <v>251</v>
       </c>
       <c r="V51" t="b">
         <v>1</v>
@@ -7457,35 +7587,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>1772</v>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Paxton 2013</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Developing predictive models using electronic medical records: challenges and pitfalls</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
+      <c r="C52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" t="s">
+        <v>253</v>
+      </c>
+      <c r="E52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52">
         <v>2013</v>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Unclear or not reported</t>
-        </is>
+      <c r="G52" t="s">
+        <v>54</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
@@ -7499,10 +7621,8 @@
       <c r="K52" t="b">
         <v>0</v>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SVM-light</t>
-        </is>
+      <c r="L52" t="s">
+        <v>254</v>
       </c>
       <c r="M52" t="b">
         <v>1</v>
@@ -7516,18 +7636,14 @@
       <c r="P52" t="b">
         <v>0</v>
       </c>
-      <c r="Q52" t="inlineStr"/>
       <c r="R52" t="b">
         <v>0</v>
       </c>
-      <c r="S52" t="inlineStr"/>
       <c r="T52" t="b">
         <v>1</v>
       </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>10066</t>
-        </is>
+      <c r="U52" t="s">
+        <v>255</v>
       </c>
       <c r="V52" t="b">
         <v>1</v>
@@ -7590,35 +7706,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>1415</v>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Thiel 2010</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Early prediction of septic shock in hospitalized patients</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
+      <c r="C53" t="s">
+        <v>256</v>
+      </c>
+      <c r="D53" t="s">
+        <v>257</v>
+      </c>
+      <c r="E53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53">
         <v>2010</v>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Mixed</t>
-        </is>
+      <c r="G53" t="s">
+        <v>153</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
@@ -7632,10 +7740,8 @@
       <c r="K53" t="b">
         <v>0</v>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Recursive Partitioning And Regression Tree (RPART)</t>
-        </is>
+      <c r="L53" t="s">
+        <v>258</v>
       </c>
       <c r="M53" t="b">
         <v>0</v>
@@ -7649,26 +7755,20 @@
       <c r="P53" t="b">
         <v>0</v>
       </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Barnes-Jewish  Hospital, St. Louis, MO, USA</t>
-        </is>
+      <c r="Q53" t="s">
+        <v>259</v>
       </c>
       <c r="R53" t="b">
         <v>1</v>
       </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S53" t="s">
+        <v>45</v>
       </c>
       <c r="T53" t="b">
         <v>1</v>
       </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>41459</t>
-        </is>
+      <c r="U53" t="s">
+        <v>260</v>
       </c>
       <c r="V53" t="b">
         <v>1</v>
@@ -7731,35 +7831,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>1201</v>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Merouani 2008</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Norepinephrine weaning in septic shock patients by closed loop control based on fuzzy logic</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
+      <c r="C54" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" t="s">
+        <v>262</v>
+      </c>
+      <c r="E54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54">
         <v>2008</v>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Unclear or not reported</t>
-        </is>
+      <c r="G54" t="s">
+        <v>54</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -7773,10 +7865,8 @@
       <c r="K54" t="b">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>closed-loop fuzzy logic</t>
-        </is>
+      <c r="L54" t="s">
+        <v>263</v>
       </c>
       <c r="M54" t="b">
         <v>0</v>
@@ -7790,22 +7880,17 @@
       <c r="P54" t="b">
         <v>0</v>
       </c>
-      <c r="Q54" t="inlineStr"/>
       <c r="R54" t="b">
         <v>1</v>
       </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S54" t="s">
+        <v>45</v>
       </c>
       <c r="T54" t="b">
         <v>1</v>
       </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="U54" t="s">
+        <v>264</v>
       </c>
       <c r="V54" t="b">
         <v>1</v>
@@ -7868,31 +7953,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>230</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Continuous Administration of Norepinephrine Assisted by Fuzzy Logic Assisted Control in Septic Shock Patients</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
+      <c r="D55" t="s">
+        <v>265</v>
+      </c>
+      <c r="E55" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55">
         <v>2008</v>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Unclear or not reported</t>
-        </is>
+      <c r="G55" t="s">
+        <v>54</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -7906,10 +7984,8 @@
       <c r="K55" t="b">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Fuzzy logic</t>
-        </is>
+      <c r="L55" t="s">
+        <v>266</v>
       </c>
       <c r="M55" t="b">
         <v>0</v>
@@ -7923,22 +7999,17 @@
       <c r="P55" t="b">
         <v>0</v>
       </c>
-      <c r="Q55" t="inlineStr"/>
       <c r="R55" t="b">
         <v>1</v>
       </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S55" t="s">
+        <v>45</v>
       </c>
       <c r="T55" t="b">
         <v>1</v>
       </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="U55" t="s">
+        <v>264</v>
       </c>
       <c r="V55" t="b">
         <v>0</v>
@@ -8001,35 +8072,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>95</v>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Satija 2021</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Multi-Objective SPIBB: Seldonian Offline Policy Improvement with Safety Constraints in Finite MDPs</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
+      <c r="C56" t="s">
+        <v>267</v>
+      </c>
+      <c r="D56" t="s">
+        <v>268</v>
+      </c>
+      <c r="E56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56">
         <v>2021</v>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Mixed</t>
-        </is>
+      <c r="G56" t="s">
+        <v>153</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -8043,10 +8106,8 @@
       <c r="K56" t="b">
         <v>0</v>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> safe policy iteration with baseline bootstrapping, reinforcement learning</t>
-        </is>
+      <c r="L56" t="s">
+        <v>269</v>
       </c>
       <c r="M56" t="b">
         <v>1</v>
@@ -8060,18 +8121,14 @@
       <c r="P56" t="b">
         <v>0</v>
       </c>
-      <c r="Q56" t="inlineStr"/>
       <c r="R56" t="b">
         <v>0</v>
       </c>
-      <c r="S56" t="inlineStr"/>
       <c r="T56" t="b">
         <v>1</v>
       </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>20954</t>
-        </is>
+      <c r="U56" t="s">
+        <v>270</v>
       </c>
       <c r="V56" t="b">
         <v>1</v>
@@ -8134,35 +8191,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>93</v>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Nanayakkara 2021</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Unifying Cardiovascular Modelling with Deep Reinforcement Learning for Uncertainty Aware Control of Sepsis Treatment</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
+      <c r="C57" t="s">
+        <v>271</v>
+      </c>
+      <c r="D57" t="s">
+        <v>272</v>
+      </c>
+      <c r="E57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57">
         <v>2021</v>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Unclear or not reported</t>
-        </is>
+      <c r="G57" t="s">
+        <v>54</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
@@ -8176,10 +8225,8 @@
       <c r="K57" t="b">
         <v>1</v>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Autoencoder; FCNN; GRU; physiological circuit model; Imitation learning; DQN</t>
-        </is>
+      <c r="L57" t="s">
+        <v>273</v>
       </c>
       <c r="M57" t="b">
         <v>1</v>
@@ -8193,19 +8240,15 @@
       <c r="P57" t="b">
         <v>0</v>
       </c>
-      <c r="Q57" t="inlineStr"/>
       <c r="R57" t="b">
         <v>1</v>
       </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S57" t="s">
+        <v>45</v>
       </c>
       <c r="T57" t="b">
         <v>0</v>
       </c>
-      <c r="U57" t="inlineStr"/>
       <c r="V57" t="b">
         <v>1</v>
       </c>
@@ -8267,35 +8310,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>91</v>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Liu 2021</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Offline reinforcement learning with uncertainty for treatment strategies in sepsis</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
+      <c r="C58" t="s">
+        <v>274</v>
+      </c>
+      <c r="D58" t="s">
+        <v>275</v>
+      </c>
+      <c r="E58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58">
         <v>2021</v>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G58" t="s">
+        <v>43</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -8309,10 +8344,8 @@
       <c r="K58" t="b">
         <v>0</v>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>k-means; Canonical correlation analysis; Q-learning; bootstraping</t>
-        </is>
+      <c r="L58" t="s">
+        <v>276</v>
       </c>
       <c r="M58" t="b">
         <v>1</v>
@@ -8326,22 +8359,17 @@
       <c r="P58" t="b">
         <v>0</v>
       </c>
-      <c r="Q58" t="inlineStr"/>
       <c r="R58" t="b">
         <v>1</v>
       </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S58" t="s">
+        <v>45</v>
       </c>
       <c r="T58" t="b">
         <v>1</v>
       </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">21189 </t>
-        </is>
+      <c r="U58" t="s">
+        <v>277</v>
       </c>
       <c r="V58" t="b">
         <v>1</v>
@@ -8404,35 +8432,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>89</v>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Kim 2021</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Time-Aware Q-Networks: Resolving Temporal Irregularity for Deep Reinforcement Learning</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
+      <c r="C59" t="s">
+        <v>278</v>
+      </c>
+      <c r="D59" t="s">
+        <v>279</v>
+      </c>
+      <c r="E59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59">
         <v>2021</v>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G59" t="s">
+        <v>43</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -8446,10 +8466,8 @@
       <c r="K59" t="b">
         <v>0</v>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Time-aware Q-Networks</t>
-        </is>
+      <c r="L59" t="s">
+        <v>280</v>
       </c>
       <c r="M59" t="b">
         <v>0</v>
@@ -8463,22 +8481,17 @@
       <c r="P59" t="b">
         <v>0</v>
       </c>
-      <c r="Q59" t="inlineStr"/>
       <c r="R59" t="b">
         <v>1</v>
       </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S59" t="s">
+        <v>45</v>
       </c>
       <c r="T59" t="b">
         <v>1</v>
       </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>4410</t>
-        </is>
+      <c r="U59" t="s">
+        <v>281</v>
       </c>
       <c r="V59" t="b">
         <v>1</v>
@@ -8541,35 +8554,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>82</v>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Ausin 2021</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>InferNet for Delayed Reinforcement Tasks: Addressing the Temporal Credit Assignment Problem</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
+      <c r="C60" t="s">
+        <v>282</v>
+      </c>
+      <c r="D60" t="s">
+        <v>283</v>
+      </c>
+      <c r="E60" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60">
         <v>2021</v>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G60" t="s">
+        <v>43</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
@@ -8583,10 +8588,8 @@
       <c r="K60" t="b">
         <v>0</v>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Feedforward neural network, dueling deep Q network, Gaussian process</t>
-        </is>
+      <c r="L60" t="s">
+        <v>284</v>
       </c>
       <c r="M60" t="b">
         <v>0</v>
@@ -8600,22 +8603,17 @@
       <c r="P60" t="b">
         <v>0</v>
       </c>
-      <c r="Q60" t="inlineStr"/>
       <c r="R60" t="b">
         <v>0</v>
       </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S60" t="s">
+        <v>56</v>
       </c>
       <c r="T60" t="b">
         <v>1</v>
       </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>5928</t>
-        </is>
+      <c r="U60" t="s">
+        <v>285</v>
       </c>
       <c r="V60" t="b">
         <v>0</v>
@@ -8678,35 +8676,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>80</v>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Xu 2020</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>DeepRite: Deep Recurrent Inverse TreatmEnt Weighting for Adjusting Time-varying Confounding in Modern Longitudinal Observational Data</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
+      <c r="C61" t="s">
+        <v>286</v>
+      </c>
+      <c r="D61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61">
         <v>2020</v>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Mixed</t>
-        </is>
+      <c r="G61" t="s">
+        <v>153</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
@@ -8720,10 +8710,8 @@
       <c r="K61" t="b">
         <v>0</v>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>DeepRite: Deep Re-current Inverse TreatmEnt weighting method. aim is to estimate unbiased treatment effects</t>
-        </is>
+      <c r="L61" t="s">
+        <v>288</v>
       </c>
       <c r="M61" t="b">
         <v>1</v>
@@ -8737,18 +8725,14 @@
       <c r="P61" t="b">
         <v>0</v>
       </c>
-      <c r="Q61" t="inlineStr"/>
       <c r="R61" t="b">
         <v>0</v>
       </c>
-      <c r="S61" t="inlineStr"/>
       <c r="T61" t="b">
         <v>1</v>
       </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>19954</t>
-        </is>
+      <c r="U61" t="s">
+        <v>289</v>
       </c>
       <c r="V61" t="b">
         <v>1</v>
@@ -8811,35 +8795,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>72</v>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Lu 2020</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Is Deep Reinforcement Learning Ready for Practical Applications in Healthcare? A Sensitivity Analysis of Duel-DDQN for Hemodynamic Management in Sepsis Patients</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
+      <c r="C62" t="s">
+        <v>290</v>
+      </c>
+      <c r="D62" t="s">
+        <v>291</v>
+      </c>
+      <c r="E62" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62">
         <v>2020</v>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Unclear or not reported</t>
-        </is>
+      <c r="G62" t="s">
+        <v>54</v>
       </c>
       <c r="H62" t="b">
         <v>1</v>
@@ -8853,10 +8829,8 @@
       <c r="K62" t="b">
         <v>0</v>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>LSTM; Dueling DDQN; GRU</t>
-        </is>
+      <c r="L62" t="s">
+        <v>292</v>
       </c>
       <c r="M62" t="b">
         <v>1</v>
@@ -8870,18 +8844,14 @@
       <c r="P62" t="b">
         <v>0</v>
       </c>
-      <c r="Q62" t="inlineStr"/>
       <c r="R62" t="b">
         <v>0</v>
       </c>
-      <c r="S62" t="inlineStr"/>
       <c r="T62" t="b">
         <v>1</v>
       </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>7956</t>
-        </is>
+      <c r="U62" t="s">
+        <v>293</v>
       </c>
       <c r="V62" t="b">
         <v>1</v>
@@ -8944,35 +8914,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>71</v>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Li 2020</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Optimizing Medical Treatment for Sepsis in Intensive Care: from Reinforcement Learning to Pre-Trial Evaluation</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
+      <c r="C63" t="s">
+        <v>294</v>
+      </c>
+      <c r="D63" t="s">
+        <v>295</v>
+      </c>
+      <c r="E63" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63">
         <v>2020</v>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Unclear or not reported</t>
-        </is>
+      <c r="G63" t="s">
+        <v>54</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -8986,10 +8948,8 @@
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>actor-critic reinforcement learning; recurrent neural network; local heuristic tree search</t>
-        </is>
+      <c r="L63" t="s">
+        <v>296</v>
       </c>
       <c r="M63" t="b">
         <v>1</v>
@@ -9003,22 +8963,17 @@
       <c r="P63" t="b">
         <v>0</v>
       </c>
-      <c r="Q63" t="inlineStr"/>
       <c r="R63" t="b">
         <v>0</v>
       </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S63" t="s">
+        <v>56</v>
       </c>
       <c r="T63" t="b">
         <v>1</v>
       </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>20587</t>
-        </is>
+      <c r="U63" t="s">
+        <v>297</v>
       </c>
       <c r="V63" t="b">
         <v>1</v>
@@ -9081,35 +9036,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>69</v>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Killian 2020</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>An Empirical Study of Representation Learning for Reinforcement Learning in Healthcare</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
+      <c r="C64" t="s">
+        <v>298</v>
+      </c>
+      <c r="D64" t="s">
+        <v>299</v>
+      </c>
+      <c r="E64" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64">
         <v>2020</v>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Mixed</t>
-        </is>
+      <c r="G64" t="s">
+        <v>153</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -9123,10 +9070,8 @@
       <c r="K64" t="b">
         <v>0</v>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Discretised batch-constrained Q learning; recurrent neural network autoencoder; approximate information state; neural controlled differential equations; decoupled dynamics module; deep signature transformations; ordinary differential equations recurrent neural network</t>
-        </is>
+      <c r="L64" t="s">
+        <v>300</v>
       </c>
       <c r="M64" t="b">
         <v>1</v>
@@ -9140,22 +9085,17 @@
       <c r="P64" t="b">
         <v>0</v>
       </c>
-      <c r="Q64" t="inlineStr"/>
       <c r="R64" t="b">
         <v>1</v>
       </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S64" t="s">
+        <v>45</v>
       </c>
       <c r="T64" t="b">
         <v>1</v>
       </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>19418</t>
-        </is>
+      <c r="U64" t="s">
+        <v>301</v>
       </c>
       <c r="V64" t="b">
         <v>1</v>
@@ -9218,35 +9158,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>53</v>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Peng 2019</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Improving Sepsis Treatment Strategies by Combining Deep and Kernel-Based Reinforcement Learning</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
+      <c r="C65" t="s">
+        <v>302</v>
+      </c>
+      <c r="D65" t="s">
+        <v>303</v>
+      </c>
+      <c r="E65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65">
         <v>2019</v>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G65" t="s">
+        <v>43</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -9260,10 +9192,8 @@
       <c r="K65" t="b">
         <v>0</v>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>deep reinforcement learning; kernel-based reinforcement learning</t>
-        </is>
+      <c r="L65" t="s">
+        <v>304</v>
       </c>
       <c r="M65" t="b">
         <v>1</v>
@@ -9277,22 +9207,17 @@
       <c r="P65" t="b">
         <v>0</v>
       </c>
-      <c r="Q65" t="inlineStr"/>
       <c r="R65" t="b">
         <v>0</v>
       </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S65" t="s">
+        <v>56</v>
       </c>
       <c r="T65" t="b">
         <v>1</v>
       </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>15415</t>
-        </is>
+      <c r="U65" t="s">
+        <v>72</v>
       </c>
       <c r="V65" t="b">
         <v>1</v>
@@ -9355,35 +9280,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>49</v>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Li 2019</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Optimizing Sequential Medical Treatments with Auto-Encoding Heuristic Search in POMDPs</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
+      <c r="C66" t="s">
+        <v>305</v>
+      </c>
+      <c r="D66" t="s">
+        <v>306</v>
+      </c>
+      <c r="E66" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66">
         <v>2019</v>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Unclear or not reported</t>
-        </is>
+      <c r="G66" t="s">
+        <v>54</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -9397,10 +9314,8 @@
       <c r="K66" t="b">
         <v>0</v>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>actor-critic reinforcement learning; recurrent neural network</t>
-        </is>
+      <c r="L66" t="s">
+        <v>307</v>
       </c>
       <c r="M66" t="b">
         <v>1</v>
@@ -9414,22 +9329,17 @@
       <c r="P66" t="b">
         <v>0</v>
       </c>
-      <c r="Q66" t="inlineStr"/>
       <c r="R66" t="b">
         <v>1</v>
       </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S66" t="s">
+        <v>45</v>
       </c>
       <c r="T66" t="b">
         <v>1</v>
       </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>18914</t>
-        </is>
+      <c r="U66" t="s">
+        <v>308</v>
       </c>
       <c r="V66" t="b">
         <v>1</v>
@@ -9492,35 +9402,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>48</v>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Lee 2019</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Truly Batch Apprenticeship Learning with Deep Successor Features</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
+      <c r="C67" t="s">
+        <v>309</v>
+      </c>
+      <c r="D67" t="s">
+        <v>310</v>
+      </c>
+      <c r="E67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67">
         <v>2019</v>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G67" t="s">
+        <v>43</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -9534,10 +9436,8 @@
       <c r="K67" t="b">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">inverse reinforcement learning; </t>
-        </is>
+      <c r="L67" t="s">
+        <v>311</v>
       </c>
       <c r="M67" t="b">
         <v>1</v>
@@ -9551,22 +9451,17 @@
       <c r="P67" t="b">
         <v>0</v>
       </c>
-      <c r="Q67" t="inlineStr"/>
       <c r="R67" t="b">
         <v>0</v>
       </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S67" t="s">
+        <v>56</v>
       </c>
       <c r="T67" t="b">
         <v>1</v>
       </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>17898</t>
-        </is>
+      <c r="U67" t="s">
+        <v>312</v>
       </c>
       <c r="V67" t="b">
         <v>1</v>
@@ -9629,35 +9524,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>34</v>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Belogolovsky 2019</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Inverse Reinforcement Learning in Contextual MDPs</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
+      <c r="C68" t="s">
+        <v>313</v>
+      </c>
+      <c r="D68" t="s">
+        <v>314</v>
+      </c>
+      <c r="E68" t="s">
+        <v>42</v>
+      </c>
+      <c r="F68">
         <v>2021</v>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G68" t="s">
+        <v>43</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -9671,10 +9558,8 @@
       <c r="K68" t="b">
         <v>0</v>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Contextual inverse RL</t>
-        </is>
+      <c r="L68" t="s">
+        <v>315</v>
       </c>
       <c r="M68" t="b">
         <v>1</v>
@@ -9688,22 +9573,17 @@
       <c r="P68" t="b">
         <v>0</v>
       </c>
-      <c r="Q68" t="inlineStr"/>
       <c r="R68" t="b">
         <v>1</v>
       </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S68" t="s">
+        <v>45</v>
       </c>
       <c r="T68" t="b">
         <v>1</v>
       </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>5366</t>
-        </is>
+      <c r="U68" t="s">
+        <v>68</v>
       </c>
       <c r="V68" t="b">
         <v>1</v>
@@ -9766,35 +9646,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>32</v>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Raghu 2018</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Model-Based Reinforcement Learning for Sepsis Treatment</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
+      <c r="C69" t="s">
+        <v>316</v>
+      </c>
+      <c r="D69" t="s">
+        <v>317</v>
+      </c>
+      <c r="E69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F69">
         <v>2018</v>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Unclear or not reported</t>
-        </is>
+      <c r="G69" t="s">
+        <v>54</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -9808,10 +9680,8 @@
       <c r="K69" t="b">
         <v>0</v>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>model-based reinforcement learning</t>
-        </is>
+      <c r="L69" t="s">
+        <v>318</v>
       </c>
       <c r="M69" t="b">
         <v>1</v>
@@ -9825,18 +9695,14 @@
       <c r="P69" t="b">
         <v>0</v>
       </c>
-      <c r="Q69" t="inlineStr"/>
       <c r="R69" t="b">
         <v>0</v>
       </c>
-      <c r="S69" t="inlineStr"/>
       <c r="T69" t="b">
         <v>1</v>
       </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>17898</t>
-        </is>
+      <c r="U69" t="s">
+        <v>312</v>
       </c>
       <c r="V69" t="b">
         <v>1</v>
@@ -9899,35 +9765,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>27</v>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Mitra 2018</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Sepsis Prediction and Vital Signs Ranking in Intensive Care Unit Patients</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
+      <c r="C70" t="s">
+        <v>319</v>
+      </c>
+      <c r="D70" t="s">
+        <v>320</v>
+      </c>
+      <c r="E70" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70">
         <v>2018</v>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Commercial</t>
-        </is>
+      <c r="G70" t="s">
+        <v>83</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
@@ -9941,10 +9799,8 @@
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>MLP; Logistic regression; Gradient boosting; Random forest; Model ensemble</t>
-        </is>
+      <c r="L70" t="s">
+        <v>321</v>
       </c>
       <c r="M70" t="b">
         <v>1</v>
@@ -9958,22 +9814,17 @@
       <c r="P70" t="b">
         <v>0</v>
       </c>
-      <c r="Q70" t="inlineStr"/>
       <c r="R70" t="b">
         <v>1</v>
       </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S70" t="s">
+        <v>45</v>
       </c>
       <c r="T70" t="b">
         <v>1</v>
       </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>21603</t>
-        </is>
+      <c r="U70" t="s">
+        <v>322</v>
       </c>
       <c r="V70" t="b">
         <v>1</v>
@@ -10036,35 +9887,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>26</v>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Li 2018</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>The Actor Search Tree Critic (ASTC) for Off-Policy POMDP Learning in Medical Decision Making</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
+      <c r="C71" t="s">
+        <v>323</v>
+      </c>
+      <c r="D71" t="s">
+        <v>324</v>
+      </c>
+      <c r="E71" t="s">
+        <v>42</v>
+      </c>
+      <c r="F71">
         <v>2018</v>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Unclear or not reported</t>
-        </is>
+      <c r="G71" t="s">
+        <v>54</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -10078,10 +9921,8 @@
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actor search tree critic </t>
-        </is>
+      <c r="L71" t="s">
+        <v>325</v>
       </c>
       <c r="M71" t="b">
         <v>1</v>
@@ -10095,22 +9936,17 @@
       <c r="P71" t="b">
         <v>0</v>
       </c>
-      <c r="Q71" t="inlineStr"/>
       <c r="R71" t="b">
         <v>1</v>
       </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S71" t="s">
+        <v>45</v>
       </c>
       <c r="T71" t="b">
         <v>1</v>
       </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>18919</t>
-        </is>
+      <c r="U71" t="s">
+        <v>326</v>
       </c>
       <c r="V71" t="b">
         <v>1</v>
@@ -10173,35 +10009,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>19</v>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Raghu 2017</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Continuous State-Space Models for Optimal Sepsis Treatment - a Deep Reinforcement Learning Approach</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
+      <c r="C72" t="s">
+        <v>327</v>
+      </c>
+      <c r="D72" t="s">
+        <v>328</v>
+      </c>
+      <c r="E72" t="s">
+        <v>42</v>
+      </c>
+      <c r="F72">
         <v>2017</v>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Academic</t>
-        </is>
+      <c r="G72" t="s">
+        <v>43</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -10215,10 +10043,8 @@
       <c r="K72" t="b">
         <v>0</v>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Deep RL</t>
-        </is>
+      <c r="L72" t="s">
+        <v>329</v>
       </c>
       <c r="M72" t="b">
         <v>1</v>
@@ -10232,18 +10058,14 @@
       <c r="P72" t="b">
         <v>0</v>
       </c>
-      <c r="Q72" t="inlineStr"/>
       <c r="R72" t="b">
         <v>0</v>
       </c>
-      <c r="S72" t="inlineStr"/>
       <c r="T72" t="b">
         <v>1</v>
       </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>17898</t>
-        </is>
+      <c r="U72" t="s">
+        <v>312</v>
       </c>
       <c r="V72" t="b">
         <v>1</v>
@@ -10306,35 +10128,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>18</v>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Raghu 2017</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Deep Reinforcement Learning for Sepsis Treatment</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
+      <c r="C73" t="s">
+        <v>327</v>
+      </c>
+      <c r="D73" t="s">
+        <v>330</v>
+      </c>
+      <c r="E73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F73">
         <v>2017</v>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Mixed</t>
-        </is>
+      <c r="G73" t="s">
+        <v>153</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -10348,10 +10162,8 @@
       <c r="K73" t="b">
         <v>0</v>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Deuling DDQN</t>
-        </is>
+      <c r="L73" t="s">
+        <v>331</v>
       </c>
       <c r="M73" t="b">
         <v>1</v>
@@ -10365,22 +10177,17 @@
       <c r="P73" t="b">
         <v>0</v>
       </c>
-      <c r="Q73" t="inlineStr"/>
       <c r="R73" t="b">
         <v>1</v>
       </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S73" t="s">
+        <v>45</v>
       </c>
       <c r="T73" t="b">
         <v>1</v>
       </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>17898</t>
-        </is>
+      <c r="U73" t="s">
+        <v>312</v>
       </c>
       <c r="V73" t="b">
         <v>1</v>
@@ -10443,35 +10250,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>9</v>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Robinson 2016</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Trading-Off Cost of Deployment Versus Accuracy in Learning Predictive Models</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Consensus</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
+      <c r="C74" t="s">
+        <v>332</v>
+      </c>
+      <c r="D74" t="s">
+        <v>333</v>
+      </c>
+      <c r="E74" t="s">
+        <v>42</v>
+      </c>
+      <c r="F74">
         <v>2016</v>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Unclear or not reported</t>
-        </is>
+      <c r="G74" t="s">
+        <v>54</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
@@ -10485,10 +10284,8 @@
       <c r="K74" t="b">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Logistic regression; boolean circuit; regularisation</t>
-        </is>
+      <c r="L74" t="s">
+        <v>334</v>
       </c>
       <c r="M74" t="b">
         <v>1</v>
@@ -10502,22 +10299,17 @@
       <c r="P74" t="b">
         <v>0</v>
       </c>
-      <c r="Q74" t="inlineStr"/>
       <c r="R74" t="b">
         <v>1</v>
       </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S74" t="s">
+        <v>45</v>
       </c>
       <c r="T74" t="b">
         <v>1</v>
       </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>14937</t>
-        </is>
+      <c r="U74" t="s">
+        <v>335</v>
       </c>
       <c r="V74" t="b">
         <v>1</v>
